--- a/DATA ROP DAN SS(FIX).xlsx
+++ b/DATA ROP DAN SS(FIX).xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TA RENAL\kebutuhan a iyus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\renaldi_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60517DA5-391F-45C6-8208-9B3442EEA48B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{18CD8270-8ADC-4A62-BD55-90B3F886BC7F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1411,7 +1410,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1594,7 +1593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1633,9 +1632,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1643,6 +1639,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1670,24 +1684,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1727,7 +1723,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18115ABD-235E-4A60-BD05-4F2366C15B01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18115ABD-235E-4A60-BD05-4F2366C15B01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1771,7 +1767,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7FE24C6-6AA4-4820-ADF3-6136EAA04DEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7FE24C6-6AA4-4820-ADF3-6136EAA04DEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2096,41 +2092,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2057852-5241-4E0E-9AEB-09B2DBF5FF55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="10"/>
-    <col min="3" max="3" width="5.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="10" customWidth="1"/>
-    <col min="11" max="14" width="9.140625" style="10"/>
-    <col min="15" max="15" width="35.28515625" style="10" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="2" width="9.1796875" style="10"/>
+    <col min="3" max="3" width="5.453125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="25.54296875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="5.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.7265625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1796875" style="10" customWidth="1"/>
+    <col min="11" max="14" width="9.1796875" style="10"/>
+    <col min="15" max="15" width="35.26953125" style="10" customWidth="1"/>
+    <col min="16" max="16384" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C1" s="25" t="s">
+    <row r="1" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-    </row>
-    <row r="2" spans="3:19" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+    </row>
+    <row r="2" spans="3:19" ht="39" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2164,58 +2160,58 @@
       <c r="N2" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="O2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="18" t="s">
+      <c r="O2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-    </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C3" s="31">
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+    </row>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C3" s="21">
         <v>1</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="18">
         <v>35</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="22">
         <v>10.395833333333334</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="22">
         <f>G3/5</f>
         <v>2.0791666666666666</v>
       </c>
-      <c r="I3" s="31">
-        <v>3</v>
-      </c>
-      <c r="J3" s="22" t="s">
+      <c r="I3" s="21">
+        <v>3</v>
+      </c>
+      <c r="J3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="28">
+      <c r="L3" s="18">
         <v>35</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="19">
         <f>(H3*I3)+N3</f>
         <v>6.8612500000000001</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N3" s="20">
         <f>(H3*I3)*10%</f>
         <v>0.62375000000000003</v>
       </c>
-      <c r="O3" s="28" t="str">
+      <c r="O3" s="18" t="str">
         <f>IF(L3&lt;=M3,"Warning ! Material harus segera dibeli","Stock Aman")</f>
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C4" s="6">
         <v>2</v>
       </c>
@@ -2238,15 +2234,15 @@
       <c r="I4" s="6">
         <v>3</v>
       </c>
-      <c r="J4" s="23"/>
+      <c r="J4" s="28"/>
       <c r="L4" s="13">
         <v>47</v>
       </c>
-      <c r="M4" s="14">
-        <f t="shared" ref="M4:M66" si="0">(G4*I4)+N4</f>
-        <v>27.221250000000001</v>
-      </c>
-      <c r="N4" s="30">
+      <c r="M4" s="19">
+        <f t="shared" ref="M4:M67" si="0">(H4*I4)+N4</f>
+        <v>5.8712500000000007</v>
+      </c>
+      <c r="N4" s="20">
         <f t="shared" ref="N4:N67" si="1">(H4*I4)*10%</f>
         <v>0.53375000000000006</v>
       </c>
@@ -2255,7 +2251,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C5" s="6">
         <v>3</v>
       </c>
@@ -2278,15 +2274,15 @@
       <c r="I5" s="6">
         <v>3</v>
       </c>
-      <c r="J5" s="23"/>
+      <c r="J5" s="28"/>
       <c r="L5" s="13">
         <v>52</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="19">
         <f t="shared" si="0"/>
-        <v>31.875</v>
-      </c>
-      <c r="N5" s="30">
+        <v>6.8749999999999991</v>
+      </c>
+      <c r="N5" s="20">
         <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
@@ -2295,7 +2291,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <v>4</v>
       </c>
@@ -2318,15 +2314,15 @@
       <c r="I6" s="6">
         <v>3</v>
       </c>
-      <c r="J6" s="23"/>
+      <c r="J6" s="28"/>
       <c r="L6" s="13">
         <v>33</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="19">
         <f t="shared" si="0"/>
-        <v>25.436250000000001</v>
-      </c>
-      <c r="N6" s="30">
+        <v>5.486250000000001</v>
+      </c>
+      <c r="N6" s="20">
         <f t="shared" si="1"/>
         <v>0.49875000000000008</v>
       </c>
@@ -2335,7 +2331,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C7" s="6">
         <v>5</v>
       </c>
@@ -2358,24 +2354,24 @@
       <c r="I7" s="6">
         <v>3</v>
       </c>
-      <c r="J7" s="23"/>
+      <c r="J7" s="28"/>
       <c r="L7" s="13">
         <v>12</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="19">
         <f t="shared" si="0"/>
-        <v>24.416250000000002</v>
-      </c>
-      <c r="N7" s="30">
+        <v>5.2662500000000003</v>
+      </c>
+      <c r="N7" s="20">
         <f t="shared" si="1"/>
         <v>0.47875000000000006</v>
       </c>
       <c r="O7" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C8" s="6">
         <v>6</v>
       </c>
@@ -2398,15 +2394,15 @@
       <c r="I8" s="6">
         <v>3</v>
       </c>
-      <c r="J8" s="23"/>
+      <c r="J8" s="28"/>
       <c r="L8" s="13">
         <v>62</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="19">
         <f t="shared" si="0"/>
-        <v>30.4725</v>
-      </c>
-      <c r="N8" s="30">
+        <v>6.5724999999999998</v>
+      </c>
+      <c r="N8" s="20">
         <f t="shared" si="1"/>
         <v>0.59750000000000003</v>
       </c>
@@ -2415,7 +2411,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C9" s="6">
         <v>7</v>
       </c>
@@ -2438,24 +2434,24 @@
       <c r="I9" s="6">
         <v>3</v>
       </c>
-      <c r="J9" s="23"/>
+      <c r="J9" s="28"/>
       <c r="L9" s="13">
         <v>17</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="19">
         <f t="shared" si="0"/>
-        <v>31.4925</v>
-      </c>
-      <c r="N9" s="30">
+        <v>6.7924999999999986</v>
+      </c>
+      <c r="N9" s="20">
         <f t="shared" si="1"/>
         <v>0.61749999999999994</v>
       </c>
       <c r="O9" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C10" s="6">
         <v>8</v>
       </c>
@@ -2478,15 +2474,15 @@
       <c r="I10" s="6">
         <v>3</v>
       </c>
-      <c r="J10" s="23"/>
+      <c r="J10" s="28"/>
       <c r="L10" s="13">
         <v>27</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="19">
         <f t="shared" si="0"/>
-        <v>26.966249999999999</v>
-      </c>
-      <c r="N10" s="30">
+        <v>5.8162499999999993</v>
+      </c>
+      <c r="N10" s="20">
         <f t="shared" si="1"/>
         <v>0.52874999999999994</v>
       </c>
@@ -2495,7 +2491,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C11" s="6">
         <v>9</v>
       </c>
@@ -2518,24 +2514,24 @@
       <c r="I11" s="6">
         <v>3</v>
       </c>
-      <c r="J11" s="23"/>
+      <c r="J11" s="28"/>
       <c r="L11" s="13">
         <v>11</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="19">
         <f t="shared" si="0"/>
-        <v>28.815000000000001</v>
-      </c>
-      <c r="N11" s="30">
+        <v>6.2150000000000007</v>
+      </c>
+      <c r="N11" s="20">
         <f t="shared" si="1"/>
         <v>0.56500000000000006</v>
       </c>
       <c r="O11" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C12" s="6">
         <v>10</v>
       </c>
@@ -2558,15 +2554,15 @@
       <c r="I12" s="6">
         <v>3</v>
       </c>
-      <c r="J12" s="23"/>
+      <c r="J12" s="28"/>
       <c r="L12" s="13">
         <v>43</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="19">
         <f t="shared" si="0"/>
-        <v>27.6675</v>
-      </c>
-      <c r="N12" s="30">
+        <v>5.9674999999999985</v>
+      </c>
+      <c r="N12" s="20">
         <f t="shared" si="1"/>
         <v>0.54249999999999987</v>
       </c>
@@ -2575,7 +2571,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C13" s="6">
         <v>11</v>
       </c>
@@ -2598,15 +2594,15 @@
       <c r="I13" s="6">
         <v>3</v>
       </c>
-      <c r="J13" s="23"/>
+      <c r="J13" s="28"/>
       <c r="L13" s="13">
         <v>76</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="19">
         <f t="shared" si="0"/>
-        <v>29.7075</v>
-      </c>
-      <c r="N13" s="30">
+        <v>6.4075000000000015</v>
+      </c>
+      <c r="N13" s="20">
         <f t="shared" si="1"/>
         <v>0.58250000000000013</v>
       </c>
@@ -2615,7 +2611,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C14" s="6">
         <v>12</v>
       </c>
@@ -2638,15 +2634,15 @@
       <c r="I14" s="6">
         <v>3</v>
       </c>
-      <c r="J14" s="23"/>
+      <c r="J14" s="28"/>
       <c r="L14" s="13">
         <v>31</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="19">
         <f t="shared" si="0"/>
-        <v>26.583749999999998</v>
-      </c>
-      <c r="N14" s="30">
+        <v>5.7337500000000006</v>
+      </c>
+      <c r="N14" s="20">
         <f t="shared" si="1"/>
         <v>0.5212500000000001</v>
       </c>
@@ -2655,7 +2651,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C15" s="6">
         <v>13</v>
       </c>
@@ -2678,15 +2674,15 @@
       <c r="I15" s="6">
         <v>3</v>
       </c>
-      <c r="J15" s="23"/>
+      <c r="J15" s="28"/>
       <c r="L15" s="13">
         <v>47</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="19">
         <f t="shared" si="0"/>
-        <v>25.563749999999999</v>
-      </c>
-      <c r="N15" s="30">
+        <v>5.513749999999999</v>
+      </c>
+      <c r="N15" s="20">
         <f t="shared" si="1"/>
         <v>0.50124999999999997</v>
       </c>
@@ -2695,7 +2691,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C16" s="6">
         <v>14</v>
       </c>
@@ -2718,24 +2714,24 @@
       <c r="I16" s="6">
         <v>3</v>
       </c>
-      <c r="J16" s="23"/>
+      <c r="J16" s="28"/>
       <c r="L16" s="13">
         <v>25</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="19">
         <f t="shared" si="0"/>
-        <v>26.9025</v>
-      </c>
-      <c r="N16" s="30">
+        <v>5.8025000000000002</v>
+      </c>
+      <c r="N16" s="20">
         <f t="shared" si="1"/>
         <v>0.52750000000000008</v>
       </c>
       <c r="O16" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C17" s="6">
         <v>15</v>
       </c>
@@ -2758,15 +2754,15 @@
       <c r="I17" s="6">
         <v>3</v>
       </c>
-      <c r="J17" s="23"/>
+      <c r="J17" s="28"/>
       <c r="L17" s="13">
         <v>29</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="19">
         <f t="shared" si="0"/>
-        <v>27.54</v>
-      </c>
-      <c r="N17" s="30">
+        <v>5.94</v>
+      </c>
+      <c r="N17" s="20">
         <f>(H17*I17)*10%</f>
         <v>0.54</v>
       </c>
@@ -2775,7 +2771,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C18" s="6">
         <v>16</v>
       </c>
@@ -2798,24 +2794,24 @@
       <c r="I18" s="6">
         <v>3</v>
       </c>
-      <c r="J18" s="23"/>
+      <c r="J18" s="28"/>
       <c r="L18" s="13">
         <v>6</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M18" s="19">
         <f t="shared" si="0"/>
-        <v>23.204999999999998</v>
-      </c>
-      <c r="N18" s="30">
+        <v>5.0049999999999999</v>
+      </c>
+      <c r="N18" s="20">
         <f t="shared" si="1"/>
         <v>0.45500000000000002</v>
       </c>
       <c r="O18" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C19" s="6">
         <v>17</v>
       </c>
@@ -2838,15 +2834,15 @@
       <c r="I19" s="6">
         <v>3</v>
       </c>
-      <c r="J19" s="23"/>
+      <c r="J19" s="28"/>
       <c r="L19" s="13">
         <v>59</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19" s="19">
         <f t="shared" si="0"/>
-        <v>28.11375</v>
-      </c>
-      <c r="N19" s="30">
+        <v>6.0637499999999989</v>
+      </c>
+      <c r="N19" s="20">
         <f t="shared" si="1"/>
         <v>0.55124999999999991</v>
       </c>
@@ -2855,7 +2851,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C20" s="6">
         <v>18</v>
       </c>
@@ -2878,15 +2874,15 @@
       <c r="I20" s="6">
         <v>3</v>
       </c>
-      <c r="J20" s="23"/>
+      <c r="J20" s="28"/>
       <c r="L20" s="13">
         <v>58</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="19">
         <f t="shared" si="0"/>
-        <v>25.627500000000001</v>
-      </c>
-      <c r="N20" s="30">
+        <v>5.5275000000000007</v>
+      </c>
+      <c r="N20" s="20">
         <f t="shared" si="1"/>
         <v>0.50250000000000006</v>
       </c>
@@ -2895,7 +2891,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C21" s="6">
         <v>19</v>
       </c>
@@ -2918,15 +2914,15 @@
       <c r="I21" s="6">
         <v>3</v>
       </c>
-      <c r="J21" s="23"/>
+      <c r="J21" s="28"/>
       <c r="L21" s="13">
         <v>62</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M21" s="19">
         <f t="shared" si="0"/>
-        <v>23.97</v>
-      </c>
-      <c r="N21" s="30">
+        <v>5.17</v>
+      </c>
+      <c r="N21" s="20">
         <f t="shared" si="1"/>
         <v>0.47000000000000003</v>
       </c>
@@ -2935,7 +2931,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C22" s="6">
         <v>20</v>
       </c>
@@ -2958,15 +2954,15 @@
       <c r="I22" s="6">
         <v>3</v>
       </c>
-      <c r="J22" s="23"/>
+      <c r="J22" s="28"/>
       <c r="L22" s="13">
         <v>80</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22" s="19">
         <f t="shared" si="0"/>
-        <v>24.48</v>
-      </c>
-      <c r="N22" s="30">
+        <v>5.2800000000000011</v>
+      </c>
+      <c r="N22" s="20">
         <f t="shared" si="1"/>
         <v>0.48000000000000009</v>
       </c>
@@ -2975,7 +2971,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C23" s="6">
         <v>21</v>
       </c>
@@ -2998,15 +2994,15 @@
       <c r="I23" s="6">
         <v>3</v>
       </c>
-      <c r="J23" s="23"/>
+      <c r="J23" s="28"/>
       <c r="L23" s="13">
         <v>42</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M23" s="19">
         <f t="shared" si="0"/>
-        <v>22.95</v>
-      </c>
-      <c r="N23" s="30">
+        <v>4.95</v>
+      </c>
+      <c r="N23" s="20">
         <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
@@ -3015,7 +3011,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C24" s="6">
         <v>22</v>
       </c>
@@ -3038,15 +3034,15 @@
       <c r="I24" s="6">
         <v>3</v>
       </c>
-      <c r="J24" s="23"/>
+      <c r="J24" s="28"/>
       <c r="L24" s="13">
         <v>57</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="19">
         <f t="shared" si="0"/>
-        <v>27.285</v>
-      </c>
-      <c r="N24" s="30">
+        <v>5.8849999999999998</v>
+      </c>
+      <c r="N24" s="20">
         <f t="shared" si="1"/>
         <v>0.53500000000000003</v>
       </c>
@@ -3055,7 +3051,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C25" s="6">
         <v>23</v>
       </c>
@@ -3078,24 +3074,24 @@
       <c r="I25" s="6">
         <v>3</v>
       </c>
-      <c r="J25" s="23"/>
+      <c r="J25" s="28"/>
       <c r="L25" s="13">
         <v>18</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M25" s="19">
         <f t="shared" si="0"/>
-        <v>22.376249999999999</v>
-      </c>
-      <c r="N25" s="30">
+        <v>4.826249999999999</v>
+      </c>
+      <c r="N25" s="20">
         <f>(H25*I25)*10%</f>
         <v>0.43874999999999997</v>
       </c>
       <c r="O25" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C26" s="6">
         <v>24</v>
       </c>
@@ -3118,15 +3114,15 @@
       <c r="I26" s="6">
         <v>3</v>
       </c>
-      <c r="J26" s="23"/>
+      <c r="J26" s="28"/>
       <c r="L26" s="13">
         <v>72</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M26" s="19">
         <f t="shared" si="0"/>
-        <v>27.47625</v>
-      </c>
-      <c r="N26" s="30">
+        <v>5.9262499999999996</v>
+      </c>
+      <c r="N26" s="20">
         <f t="shared" si="1"/>
         <v>0.53874999999999995</v>
       </c>
@@ -3135,7 +3131,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C27" s="6">
         <v>25</v>
       </c>
@@ -3158,15 +3154,15 @@
       <c r="I27" s="6">
         <v>3</v>
       </c>
-      <c r="J27" s="23"/>
+      <c r="J27" s="28"/>
       <c r="L27" s="13">
         <v>77</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M27" s="19">
         <f t="shared" si="0"/>
-        <v>31.237500000000001</v>
-      </c>
-      <c r="N27" s="30">
+        <v>6.7375000000000007</v>
+      </c>
+      <c r="N27" s="20">
         <f t="shared" si="1"/>
         <v>0.61250000000000016</v>
       </c>
@@ -3175,7 +3171,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C28" s="6">
         <v>26</v>
       </c>
@@ -3198,15 +3194,15 @@
       <c r="I28" s="6">
         <v>3</v>
       </c>
-      <c r="J28" s="24"/>
+      <c r="J28" s="29"/>
       <c r="L28" s="13">
         <v>75</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M28" s="19">
         <f t="shared" si="0"/>
-        <v>29.452500000000001</v>
-      </c>
-      <c r="N28" s="30">
+        <v>6.3525</v>
+      </c>
+      <c r="N28" s="20">
         <f t="shared" si="1"/>
         <v>0.57750000000000001</v>
       </c>
@@ -3215,7 +3211,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C29" s="6">
         <v>27</v>
       </c>
@@ -3238,26 +3234,26 @@
       <c r="I29" s="6">
         <v>5</v>
       </c>
-      <c r="J29" s="22" t="s">
+      <c r="J29" s="27" t="s">
         <v>62</v>
       </c>
       <c r="L29" s="13">
         <v>44</v>
       </c>
-      <c r="M29" s="14">
+      <c r="M29" s="19">
         <f t="shared" si="0"/>
-        <v>47.8125</v>
-      </c>
-      <c r="N29" s="30">
+        <v>10.3125</v>
+      </c>
+      <c r="N29" s="20">
         <f t="shared" si="1"/>
         <v>0.9375</v>
       </c>
       <c r="O29" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C30" s="6">
         <v>28</v>
       </c>
@@ -3280,15 +3276,15 @@
       <c r="I30" s="6">
         <v>5</v>
       </c>
-      <c r="J30" s="23"/>
+      <c r="J30" s="28"/>
       <c r="L30" s="13">
         <v>64</v>
       </c>
-      <c r="M30" s="14">
+      <c r="M30" s="19">
         <f t="shared" si="0"/>
-        <v>41.968749999999993</v>
-      </c>
-      <c r="N30" s="30">
+        <v>9.0520833333333321</v>
+      </c>
+      <c r="N30" s="20">
         <f t="shared" si="1"/>
         <v>0.82291666666666663</v>
       </c>
@@ -3297,7 +3293,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C31" s="6">
         <v>29</v>
       </c>
@@ -3320,15 +3316,15 @@
       <c r="I31" s="6">
         <v>5</v>
       </c>
-      <c r="J31" s="23"/>
+      <c r="J31" s="28"/>
       <c r="L31" s="13">
         <v>57</v>
       </c>
-      <c r="M31" s="14">
+      <c r="M31" s="19">
         <f t="shared" si="0"/>
-        <v>48.45</v>
-      </c>
-      <c r="N31" s="30">
+        <v>10.45</v>
+      </c>
+      <c r="N31" s="20">
         <f t="shared" si="1"/>
         <v>0.95000000000000007</v>
       </c>
@@ -3337,7 +3333,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C32" s="6">
         <v>30</v>
       </c>
@@ -3360,15 +3356,15 @@
       <c r="I32" s="6">
         <v>5</v>
       </c>
-      <c r="J32" s="23"/>
+      <c r="J32" s="28"/>
       <c r="L32" s="13">
         <v>77</v>
       </c>
-      <c r="M32" s="14">
+      <c r="M32" s="19">
         <f t="shared" si="0"/>
-        <v>42.712499999999999</v>
-      </c>
-      <c r="N32" s="30">
+        <v>9.2125000000000004</v>
+      </c>
+      <c r="N32" s="20">
         <f t="shared" si="1"/>
         <v>0.83750000000000002</v>
       </c>
@@ -3377,7 +3373,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C33" s="6">
         <v>31</v>
       </c>
@@ -3400,15 +3396,15 @@
       <c r="I33" s="6">
         <v>5</v>
       </c>
-      <c r="J33" s="23"/>
+      <c r="J33" s="28"/>
       <c r="L33" s="13">
         <v>48</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M33" s="19">
         <f t="shared" si="0"/>
-        <v>44.306249999999999</v>
-      </c>
-      <c r="N33" s="30">
+        <v>9.5562500000000004</v>
+      </c>
+      <c r="N33" s="20">
         <f t="shared" si="1"/>
         <v>0.86875000000000002</v>
       </c>
@@ -3417,7 +3413,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C34" s="6">
         <v>32</v>
       </c>
@@ -3440,24 +3436,24 @@
       <c r="I34" s="6">
         <v>5</v>
       </c>
-      <c r="J34" s="23"/>
+      <c r="J34" s="28"/>
       <c r="L34" s="13">
         <v>13</v>
       </c>
-      <c r="M34" s="14">
+      <c r="M34" s="19">
         <f t="shared" si="0"/>
-        <v>49.831250000000004</v>
-      </c>
-      <c r="N34" s="30">
+        <v>10.747916666666667</v>
+      </c>
+      <c r="N34" s="20">
         <f>(H34*I34)*10%</f>
         <v>0.97708333333333341</v>
       </c>
       <c r="O34" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C35" s="6">
         <v>33</v>
       </c>
@@ -3480,24 +3476,24 @@
       <c r="I35" s="6">
         <v>5</v>
       </c>
-      <c r="J35" s="23"/>
+      <c r="J35" s="28"/>
       <c r="L35" s="13">
         <v>15</v>
       </c>
-      <c r="M35" s="14">
+      <c r="M35" s="19">
         <f t="shared" si="0"/>
-        <v>47.174999999999997</v>
-      </c>
-      <c r="N35" s="30">
+        <v>10.175000000000001</v>
+      </c>
+      <c r="N35" s="20">
         <f t="shared" si="1"/>
         <v>0.92500000000000004</v>
       </c>
       <c r="O35" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C36" s="6">
         <v>34</v>
       </c>
@@ -3520,15 +3516,15 @@
       <c r="I36" s="6">
         <v>5</v>
       </c>
-      <c r="J36" s="23"/>
+      <c r="J36" s="28"/>
       <c r="L36" s="13">
         <v>72</v>
       </c>
-      <c r="M36" s="14">
+      <c r="M36" s="19">
         <f t="shared" si="0"/>
-        <v>52.274999999999999</v>
-      </c>
-      <c r="N36" s="30">
+        <v>11.275</v>
+      </c>
+      <c r="N36" s="20">
         <f t="shared" si="1"/>
         <v>1.0250000000000001</v>
       </c>
@@ -3537,7 +3533,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C37" s="6">
         <v>35</v>
       </c>
@@ -3560,15 +3556,15 @@
       <c r="I37" s="6">
         <v>5</v>
       </c>
-      <c r="J37" s="23"/>
+      <c r="J37" s="28"/>
       <c r="L37" s="13">
         <v>80</v>
       </c>
-      <c r="M37" s="14">
+      <c r="M37" s="19">
         <f t="shared" si="0"/>
-        <v>43.668750000000003</v>
-      </c>
-      <c r="N37" s="30">
+        <v>9.4187499999999993</v>
+      </c>
+      <c r="N37" s="20">
         <f t="shared" si="1"/>
         <v>0.85625000000000007</v>
       </c>
@@ -3577,7 +3573,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C38" s="6">
         <v>36</v>
       </c>
@@ -3600,15 +3596,15 @@
       <c r="I38" s="6">
         <v>5</v>
       </c>
-      <c r="J38" s="23"/>
+      <c r="J38" s="28"/>
       <c r="L38" s="13">
         <v>54</v>
       </c>
-      <c r="M38" s="14">
+      <c r="M38" s="19">
         <f t="shared" si="0"/>
-        <v>48.981249999999996</v>
-      </c>
-      <c r="N38" s="30">
+        <v>10.564583333333333</v>
+      </c>
+      <c r="N38" s="20">
         <f t="shared" si="1"/>
         <v>0.9604166666666667</v>
       </c>
@@ -3617,7 +3613,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C39" s="6">
         <v>37</v>
       </c>
@@ -3640,24 +3636,24 @@
       <c r="I39" s="6">
         <v>5</v>
       </c>
-      <c r="J39" s="23"/>
+      <c r="J39" s="28"/>
       <c r="L39" s="13">
         <v>32</v>
       </c>
-      <c r="M39" s="14">
+      <c r="M39" s="19">
         <f t="shared" si="0"/>
-        <v>40.162500000000001</v>
-      </c>
-      <c r="N39" s="30">
+        <v>8.6624999999999996</v>
+      </c>
+      <c r="N39" s="20">
         <f t="shared" si="1"/>
         <v>0.78750000000000009</v>
       </c>
       <c r="O39" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C40" s="6">
         <v>38</v>
       </c>
@@ -3680,24 +3676,24 @@
       <c r="I40" s="6">
         <v>5</v>
       </c>
-      <c r="J40" s="23"/>
+      <c r="J40" s="28"/>
       <c r="L40" s="13">
         <v>13</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M40" s="19">
         <f t="shared" si="0"/>
-        <v>44.412500000000001</v>
-      </c>
-      <c r="N40" s="30">
+        <v>9.5791666666666675</v>
+      </c>
+      <c r="N40" s="20">
         <f t="shared" si="1"/>
         <v>0.87083333333333346</v>
       </c>
       <c r="O40" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C41" s="6">
         <v>39</v>
       </c>
@@ -3720,15 +3716,15 @@
       <c r="I41" s="6">
         <v>5</v>
       </c>
-      <c r="J41" s="23"/>
+      <c r="J41" s="28"/>
       <c r="L41" s="13">
         <v>53</v>
       </c>
-      <c r="M41" s="14">
+      <c r="M41" s="19">
         <f t="shared" si="0"/>
-        <v>41.756250000000001</v>
-      </c>
-      <c r="N41" s="30">
+        <v>9.0062499999999996</v>
+      </c>
+      <c r="N41" s="20">
         <f t="shared" si="1"/>
         <v>0.81875000000000009</v>
       </c>
@@ -3737,7 +3733,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C42" s="6">
         <v>40</v>
       </c>
@@ -3760,24 +3756,24 @@
       <c r="I42" s="6">
         <v>5</v>
       </c>
-      <c r="J42" s="23"/>
+      <c r="J42" s="28"/>
       <c r="L42" s="13">
         <v>12</v>
       </c>
-      <c r="M42" s="14">
+      <c r="M42" s="19">
         <f t="shared" si="0"/>
-        <v>40.162500000000001</v>
-      </c>
-      <c r="N42" s="30">
+        <v>8.6624999999999996</v>
+      </c>
+      <c r="N42" s="20">
         <f t="shared" si="1"/>
         <v>0.78750000000000009</v>
       </c>
       <c r="O42" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C43" s="6">
         <v>41</v>
       </c>
@@ -3800,24 +3796,24 @@
       <c r="I43" s="6">
         <v>5</v>
       </c>
-      <c r="J43" s="23"/>
+      <c r="J43" s="28"/>
       <c r="L43" s="13">
         <v>32</v>
       </c>
-      <c r="M43" s="14">
+      <c r="M43" s="19">
         <f t="shared" si="0"/>
-        <v>44.625</v>
-      </c>
-      <c r="N43" s="30">
+        <v>9.625</v>
+      </c>
+      <c r="N43" s="20">
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
       <c r="O43" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C44" s="6">
         <v>42</v>
       </c>
@@ -3840,24 +3836,24 @@
       <c r="I44" s="6">
         <v>5</v>
       </c>
-      <c r="J44" s="23"/>
+      <c r="J44" s="28"/>
       <c r="L44" s="13">
         <v>43</v>
       </c>
-      <c r="M44" s="14">
+      <c r="M44" s="19">
         <f t="shared" si="0"/>
-        <v>43.668750000000003</v>
-      </c>
-      <c r="N44" s="30">
+        <v>9.4187499999999993</v>
+      </c>
+      <c r="N44" s="20">
         <f t="shared" si="1"/>
         <v>0.85625000000000007</v>
       </c>
       <c r="O44" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C45" s="6">
         <v>43</v>
       </c>
@@ -3880,15 +3876,15 @@
       <c r="I45" s="6">
         <v>5</v>
       </c>
-      <c r="J45" s="23"/>
+      <c r="J45" s="28"/>
       <c r="L45" s="13">
         <v>70</v>
       </c>
-      <c r="M45" s="14">
+      <c r="M45" s="19">
         <f t="shared" si="0"/>
-        <v>46.643750000000004</v>
-      </c>
-      <c r="N45" s="30">
+        <v>10.060416666666667</v>
+      </c>
+      <c r="N45" s="20">
         <f>(H45*I45)*10%</f>
         <v>0.91458333333333341</v>
       </c>
@@ -3897,7 +3893,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C46" s="6">
         <v>44</v>
       </c>
@@ -3920,15 +3916,15 @@
       <c r="I46" s="6">
         <v>5</v>
       </c>
-      <c r="J46" s="23"/>
+      <c r="J46" s="28"/>
       <c r="L46" s="13">
         <v>60</v>
       </c>
-      <c r="M46" s="14">
+      <c r="M46" s="19">
         <f t="shared" si="0"/>
-        <v>50.574999999999996</v>
-      </c>
-      <c r="N46" s="30">
+        <v>10.908333333333333</v>
+      </c>
+      <c r="N46" s="20">
         <f t="shared" si="1"/>
         <v>0.9916666666666667</v>
       </c>
@@ -3937,7 +3933,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C47" s="6">
         <v>45</v>
       </c>
@@ -3960,15 +3956,15 @@
       <c r="I47" s="6">
         <v>5</v>
       </c>
-      <c r="J47" s="23"/>
+      <c r="J47" s="28"/>
       <c r="L47" s="13">
         <v>72</v>
       </c>
-      <c r="M47" s="14">
+      <c r="M47" s="19">
         <f t="shared" si="0"/>
-        <v>51.637500000000003</v>
-      </c>
-      <c r="N47" s="30">
+        <v>11.137499999999999</v>
+      </c>
+      <c r="N47" s="20">
         <f t="shared" si="1"/>
         <v>1.0125</v>
       </c>
@@ -3977,7 +3973,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C48" s="6">
         <v>46</v>
       </c>
@@ -4000,15 +3996,15 @@
       <c r="I48" s="6">
         <v>5</v>
       </c>
-      <c r="J48" s="23"/>
+      <c r="J48" s="28"/>
       <c r="L48" s="13">
         <v>43</v>
       </c>
-      <c r="M48" s="14">
+      <c r="M48" s="19">
         <f t="shared" si="0"/>
-        <v>40.587499999999999</v>
-      </c>
-      <c r="N48" s="30">
+        <v>8.7541666666666664</v>
+      </c>
+      <c r="N48" s="20">
         <f t="shared" si="1"/>
         <v>0.79583333333333339</v>
       </c>
@@ -4017,7 +4013,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C49" s="6">
         <v>47</v>
       </c>
@@ -4040,15 +4036,15 @@
       <c r="I49" s="6">
         <v>5</v>
       </c>
-      <c r="J49" s="23"/>
+      <c r="J49" s="28"/>
       <c r="L49" s="13">
         <v>76</v>
       </c>
-      <c r="M49" s="14">
+      <c r="M49" s="19">
         <f t="shared" si="0"/>
-        <v>52.912500000000001</v>
-      </c>
-      <c r="N49" s="30">
+        <v>11.4125</v>
+      </c>
+      <c r="N49" s="20">
         <f t="shared" si="1"/>
         <v>1.0375000000000001</v>
       </c>
@@ -4057,7 +4053,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C50" s="6">
         <v>48</v>
       </c>
@@ -4080,24 +4076,24 @@
       <c r="I50" s="6">
         <v>5</v>
       </c>
-      <c r="J50" s="23"/>
+      <c r="J50" s="28"/>
       <c r="L50" s="13">
         <v>33</v>
       </c>
-      <c r="M50" s="14">
+      <c r="M50" s="19">
         <f t="shared" si="0"/>
-        <v>45.050000000000004</v>
-      </c>
-      <c r="N50" s="30">
+        <v>9.7166666666666668</v>
+      </c>
+      <c r="N50" s="20">
         <f t="shared" si="1"/>
         <v>0.88333333333333341</v>
       </c>
       <c r="O50" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C51" s="6">
         <v>49</v>
       </c>
@@ -4120,15 +4116,15 @@
       <c r="I51" s="6">
         <v>5</v>
       </c>
-      <c r="J51" s="23"/>
+      <c r="J51" s="28"/>
       <c r="L51" s="13">
         <v>43</v>
       </c>
-      <c r="M51" s="14">
+      <c r="M51" s="19">
         <f t="shared" si="0"/>
-        <v>38.887500000000003</v>
-      </c>
-      <c r="N51" s="30">
+        <v>8.3874999999999993</v>
+      </c>
+      <c r="N51" s="20">
         <f t="shared" si="1"/>
         <v>0.76250000000000007</v>
       </c>
@@ -4137,7 +4133,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C52" s="6">
         <v>50</v>
       </c>
@@ -4160,24 +4156,24 @@
       <c r="I52" s="6">
         <v>5</v>
       </c>
-      <c r="J52" s="23"/>
+      <c r="J52" s="28"/>
       <c r="L52" s="13">
         <v>35</v>
       </c>
-      <c r="M52" s="14">
+      <c r="M52" s="19">
         <f t="shared" si="0"/>
-        <v>37.506250000000001</v>
-      </c>
-      <c r="N52" s="30">
+        <v>8.0895833333333336</v>
+      </c>
+      <c r="N52" s="20">
         <f t="shared" si="1"/>
         <v>0.73541666666666672</v>
       </c>
       <c r="O52" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C53" s="6">
         <v>51</v>
       </c>
@@ -4200,24 +4196,24 @@
       <c r="I53" s="6">
         <v>5</v>
       </c>
-      <c r="J53" s="23"/>
+      <c r="J53" s="28"/>
       <c r="L53" s="13">
         <v>39</v>
       </c>
-      <c r="M53" s="14">
+      <c r="M53" s="19">
         <f t="shared" si="0"/>
-        <v>52.806249999999999</v>
-      </c>
-      <c r="N53" s="30">
+        <v>11.389583333333333</v>
+      </c>
+      <c r="N53" s="20">
         <f t="shared" si="1"/>
         <v>1.0354166666666667</v>
       </c>
       <c r="O53" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C54" s="6">
         <v>52</v>
       </c>
@@ -4240,15 +4236,15 @@
       <c r="I54" s="6">
         <v>5</v>
       </c>
-      <c r="J54" s="23"/>
+      <c r="J54" s="28"/>
       <c r="L54" s="13">
         <v>71</v>
       </c>
-      <c r="M54" s="14">
+      <c r="M54" s="19">
         <f t="shared" si="0"/>
-        <v>43.562499999999993</v>
-      </c>
-      <c r="N54" s="30">
+        <v>9.3958333333333321</v>
+      </c>
+      <c r="N54" s="20">
         <f>(H54*I54)*10%</f>
         <v>0.85416666666666663</v>
       </c>
@@ -4257,7 +4253,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C55" s="6">
         <v>53</v>
       </c>
@@ -4280,15 +4276,15 @@
       <c r="I55" s="6">
         <v>5</v>
       </c>
-      <c r="J55" s="23"/>
+      <c r="J55" s="28"/>
       <c r="L55" s="13">
         <v>6</v>
       </c>
-      <c r="M55" s="14">
+      <c r="M55" s="19">
         <f t="shared" si="0"/>
-        <v>43.35</v>
-      </c>
-      <c r="N55" s="30">
+        <v>9.35</v>
+      </c>
+      <c r="N55" s="20">
         <f t="shared" si="1"/>
         <v>0.85000000000000009</v>
       </c>
@@ -4297,7 +4293,7 @@
         <v>Warning ! Material harus segera dibeli</v>
       </c>
     </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C56" s="6">
         <v>54</v>
       </c>
@@ -4320,24 +4316,24 @@
       <c r="I56" s="6">
         <v>5</v>
       </c>
-      <c r="J56" s="23"/>
+      <c r="J56" s="28"/>
       <c r="L56" s="13">
         <v>14</v>
       </c>
-      <c r="M56" s="14">
+      <c r="M56" s="19">
         <f t="shared" si="0"/>
-        <v>48.131250000000001</v>
-      </c>
-      <c r="N56" s="30">
+        <v>10.38125</v>
+      </c>
+      <c r="N56" s="20">
         <f t="shared" si="1"/>
         <v>0.94375000000000009</v>
       </c>
       <c r="O56" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C57" s="6">
         <v>55</v>
       </c>
@@ -4360,15 +4356,15 @@
       <c r="I57" s="6">
         <v>5</v>
       </c>
-      <c r="J57" s="23"/>
+      <c r="J57" s="28"/>
       <c r="L57" s="13">
         <v>64</v>
       </c>
-      <c r="M57" s="14">
+      <c r="M57" s="19">
         <f t="shared" si="0"/>
-        <v>44.093750000000007</v>
-      </c>
-      <c r="N57" s="30">
+        <v>9.5104166666666679</v>
+      </c>
+      <c r="N57" s="20">
         <f t="shared" si="1"/>
         <v>0.86458333333333348</v>
       </c>
@@ -4377,7 +4373,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C58" s="6">
         <v>56</v>
       </c>
@@ -4400,15 +4396,15 @@
       <c r="I58" s="6">
         <v>5</v>
       </c>
-      <c r="J58" s="23"/>
+      <c r="J58" s="28"/>
       <c r="L58" s="13">
         <v>3</v>
       </c>
-      <c r="M58" s="14">
+      <c r="M58" s="19">
         <f t="shared" si="0"/>
-        <v>51.106250000000003</v>
-      </c>
-      <c r="N58" s="30">
+        <v>11.022916666666667</v>
+      </c>
+      <c r="N58" s="20">
         <f t="shared" si="1"/>
         <v>1.0020833333333334</v>
       </c>
@@ -4417,7 +4413,7 @@
         <v>Warning ! Material harus segera dibeli</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C59" s="6">
         <v>57</v>
       </c>
@@ -4440,24 +4436,24 @@
       <c r="I59" s="6">
         <v>5</v>
       </c>
-      <c r="J59" s="23"/>
+      <c r="J59" s="28"/>
       <c r="L59" s="13">
         <v>15</v>
       </c>
-      <c r="M59" s="14">
+      <c r="M59" s="19">
         <f t="shared" si="0"/>
-        <v>38.143750000000004</v>
-      </c>
-      <c r="N59" s="30">
+        <v>8.2270833333333329</v>
+      </c>
+      <c r="N59" s="20">
         <f t="shared" si="1"/>
         <v>0.74791666666666679</v>
       </c>
       <c r="O59" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C60" s="6">
         <v>58</v>
       </c>
@@ -4480,24 +4476,24 @@
       <c r="I60" s="6">
         <v>5</v>
       </c>
-      <c r="J60" s="23"/>
+      <c r="J60" s="28"/>
       <c r="L60" s="13">
         <v>46</v>
       </c>
-      <c r="M60" s="14">
+      <c r="M60" s="19">
         <f t="shared" si="0"/>
-        <v>49.725000000000001</v>
-      </c>
-      <c r="N60" s="30">
+        <v>10.725</v>
+      </c>
+      <c r="N60" s="20">
         <f t="shared" si="1"/>
         <v>0.97500000000000009</v>
       </c>
       <c r="O60" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C61" s="6">
         <v>59</v>
       </c>
@@ -4520,15 +4516,15 @@
       <c r="I61" s="6">
         <v>5</v>
       </c>
-      <c r="J61" s="23"/>
+      <c r="J61" s="28"/>
       <c r="L61" s="13">
         <v>62</v>
       </c>
-      <c r="M61" s="14">
+      <c r="M61" s="19">
         <f t="shared" si="0"/>
-        <v>44.731250000000003</v>
-      </c>
-      <c r="N61" s="30">
+        <v>9.6479166666666671</v>
+      </c>
+      <c r="N61" s="20">
         <f t="shared" si="1"/>
         <v>0.87708333333333344</v>
       </c>
@@ -4537,7 +4533,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C62" s="6">
         <v>60</v>
       </c>
@@ -4560,24 +4556,24 @@
       <c r="I62" s="6">
         <v>5</v>
       </c>
-      <c r="J62" s="23"/>
+      <c r="J62" s="28"/>
       <c r="L62" s="13">
         <v>34</v>
       </c>
-      <c r="M62" s="14">
+      <c r="M62" s="19">
         <f t="shared" si="0"/>
-        <v>51.531249999999993</v>
-      </c>
-      <c r="N62" s="30">
+        <v>11.11458333333333</v>
+      </c>
+      <c r="N62" s="20">
         <f t="shared" si="1"/>
         <v>1.0104166666666665</v>
       </c>
       <c r="O62" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C63" s="6">
         <v>61</v>
       </c>
@@ -4600,24 +4596,24 @@
       <c r="I63" s="6">
         <v>5</v>
       </c>
-      <c r="J63" s="23"/>
+      <c r="J63" s="28"/>
       <c r="L63" s="13">
         <v>22</v>
       </c>
-      <c r="M63" s="14">
+      <c r="M63" s="19">
         <f t="shared" si="0"/>
-        <v>48.875000000000007</v>
-      </c>
-      <c r="N63" s="30">
+        <v>10.541666666666668</v>
+      </c>
+      <c r="N63" s="20">
         <f t="shared" si="1"/>
         <v>0.95833333333333348</v>
       </c>
       <c r="O63" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C64" s="6">
         <v>62</v>
       </c>
@@ -4640,24 +4636,24 @@
       <c r="I64" s="6">
         <v>5</v>
       </c>
-      <c r="J64" s="23"/>
+      <c r="J64" s="28"/>
       <c r="L64" s="13">
         <v>27</v>
       </c>
-      <c r="M64" s="14">
+      <c r="M64" s="19">
         <f t="shared" si="0"/>
-        <v>49.937499999999993</v>
-      </c>
-      <c r="N64" s="30">
+        <v>10.770833333333332</v>
+      </c>
+      <c r="N64" s="20">
         <f>(H64*I64)*10%</f>
         <v>0.97916666666666663</v>
       </c>
       <c r="O64" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="65" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="65" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C65" s="6">
         <v>63</v>
       </c>
@@ -4680,15 +4676,15 @@
       <c r="I65" s="6">
         <v>5</v>
       </c>
-      <c r="J65" s="23"/>
+      <c r="J65" s="28"/>
       <c r="L65" s="13">
         <v>42</v>
       </c>
-      <c r="M65" s="14">
+      <c r="M65" s="19">
         <f t="shared" si="0"/>
-        <v>39.524999999999999</v>
-      </c>
-      <c r="N65" s="30">
+        <v>8.5250000000000004</v>
+      </c>
+      <c r="N65" s="20">
         <f t="shared" si="1"/>
         <v>0.77500000000000002</v>
       </c>
@@ -4697,7 +4693,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="66" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C66" s="6">
         <v>64</v>
       </c>
@@ -4720,24 +4716,24 @@
       <c r="I66" s="6">
         <v>5</v>
       </c>
-      <c r="J66" s="23"/>
+      <c r="J66" s="28"/>
       <c r="L66" s="13">
         <v>14</v>
       </c>
-      <c r="M66" s="14">
+      <c r="M66" s="19">
         <f t="shared" si="0"/>
-        <v>44.943750000000001</v>
-      </c>
-      <c r="N66" s="30">
+        <v>9.6937499999999996</v>
+      </c>
+      <c r="N66" s="20">
         <f t="shared" si="1"/>
         <v>0.88125000000000009</v>
       </c>
       <c r="O66" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="67" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="67" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C67" s="6">
         <v>65</v>
       </c>
@@ -4760,15 +4756,15 @@
       <c r="I67" s="6">
         <v>5</v>
       </c>
-      <c r="J67" s="23"/>
+      <c r="J67" s="28"/>
       <c r="L67" s="13">
         <v>47</v>
       </c>
-      <c r="M67" s="14">
-        <f t="shared" ref="M67:M130" si="4">(G67*I67)+N67</f>
-        <v>39.3125</v>
-      </c>
-      <c r="N67" s="30">
+      <c r="M67" s="19">
+        <f t="shared" si="0"/>
+        <v>8.4791666666666661</v>
+      </c>
+      <c r="N67" s="20">
         <f t="shared" si="1"/>
         <v>0.77083333333333326</v>
       </c>
@@ -4777,7 +4773,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="68" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C68" s="6">
         <v>66</v>
       </c>
@@ -4800,15 +4796,15 @@
       <c r="I68" s="6">
         <v>5</v>
       </c>
-      <c r="J68" s="23"/>
+      <c r="J68" s="28"/>
       <c r="L68" s="13">
         <v>79</v>
       </c>
-      <c r="M68" s="14">
-        <f t="shared" si="4"/>
-        <v>38.993749999999999</v>
-      </c>
-      <c r="N68" s="30">
+      <c r="M68" s="19">
+        <f t="shared" ref="M68:M131" si="4">(H68*I68)+N68</f>
+        <v>8.4104166666666664</v>
+      </c>
+      <c r="N68" s="20">
         <f t="shared" ref="N68:N72" si="5">(H68*I68)*10%</f>
         <v>0.76458333333333339</v>
       </c>
@@ -4817,7 +4813,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="69" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C69" s="6">
         <v>67</v>
       </c>
@@ -4840,15 +4836,15 @@
       <c r="I69" s="6">
         <v>5</v>
       </c>
-      <c r="J69" s="23"/>
+      <c r="J69" s="28"/>
       <c r="L69" s="13">
         <v>65</v>
       </c>
-      <c r="M69" s="14">
+      <c r="M69" s="19">
         <f t="shared" si="4"/>
-        <v>39.84375</v>
-      </c>
-      <c r="N69" s="30">
+        <v>8.59375</v>
+      </c>
+      <c r="N69" s="20">
         <f t="shared" si="5"/>
         <v>0.78125</v>
       </c>
@@ -4857,7 +4853,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="70" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C70" s="6">
         <v>68</v>
       </c>
@@ -4880,15 +4876,15 @@
       <c r="I70" s="6">
         <v>5</v>
       </c>
-      <c r="J70" s="23"/>
+      <c r="J70" s="28"/>
       <c r="L70" s="13">
         <v>45</v>
       </c>
-      <c r="M70" s="14">
+      <c r="M70" s="19">
         <f t="shared" si="4"/>
-        <v>43.137500000000003</v>
-      </c>
-      <c r="N70" s="30">
+        <v>9.3041666666666671</v>
+      </c>
+      <c r="N70" s="20">
         <f t="shared" si="5"/>
         <v>0.84583333333333344</v>
       </c>
@@ -4897,7 +4893,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="71" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C71" s="6">
         <v>69</v>
       </c>
@@ -4920,15 +4916,15 @@
       <c r="I71" s="6">
         <v>5</v>
       </c>
-      <c r="J71" s="23"/>
+      <c r="J71" s="28"/>
       <c r="L71" s="13">
         <v>47</v>
       </c>
-      <c r="M71" s="14">
+      <c r="M71" s="19">
         <f t="shared" si="4"/>
-        <v>41.756250000000001</v>
-      </c>
-      <c r="N71" s="30">
+        <v>9.0062499999999996</v>
+      </c>
+      <c r="N71" s="20">
         <f t="shared" si="5"/>
         <v>0.81875000000000009</v>
       </c>
@@ -4937,7 +4933,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="72" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C72" s="6">
         <v>70</v>
       </c>
@@ -4960,24 +4956,24 @@
       <c r="I72" s="6">
         <v>5</v>
       </c>
-      <c r="J72" s="23"/>
+      <c r="J72" s="28"/>
       <c r="L72" s="13">
         <v>45</v>
       </c>
-      <c r="M72" s="14">
+      <c r="M72" s="19">
         <f t="shared" si="4"/>
-        <v>49.937499999999993</v>
-      </c>
-      <c r="N72" s="30">
+        <v>10.770833333333332</v>
+      </c>
+      <c r="N72" s="20">
         <f t="shared" si="5"/>
         <v>0.97916666666666663</v>
       </c>
       <c r="O72" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="73" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="73" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C73" s="6">
         <v>71</v>
       </c>
@@ -5000,15 +4996,15 @@
       <c r="I73" s="6">
         <v>5</v>
       </c>
-      <c r="J73" s="24"/>
+      <c r="J73" s="29"/>
       <c r="L73" s="13">
         <v>66</v>
       </c>
-      <c r="M73" s="14">
+      <c r="M73" s="19">
         <f t="shared" si="4"/>
-        <v>38.143750000000004</v>
-      </c>
-      <c r="N73" s="30">
+        <v>8.2270833333333329</v>
+      </c>
+      <c r="N73" s="20">
         <f>(H73*I73)*10%</f>
         <v>0.74791666666666679</v>
       </c>
@@ -5017,7 +5013,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="74" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C74" s="6">
         <v>72</v>
       </c>
@@ -5040,17 +5036,17 @@
       <c r="I74" s="6">
         <v>3</v>
       </c>
-      <c r="J74" s="22" t="s">
+      <c r="J74" s="27" t="s">
         <v>151</v>
       </c>
       <c r="L74" s="13">
         <v>50</v>
       </c>
-      <c r="M74" s="14">
+      <c r="M74" s="19">
         <f t="shared" si="4"/>
-        <v>28.623750000000001</v>
-      </c>
-      <c r="N74" s="30">
+        <v>6.1737499999999992</v>
+      </c>
+      <c r="N74" s="20">
         <f t="shared" ref="N74:N83" si="8">(H74*I74)*10%</f>
         <v>0.56124999999999992</v>
       </c>
@@ -5059,7 +5055,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="75" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C75" s="6">
         <v>73</v>
       </c>
@@ -5082,15 +5078,15 @@
       <c r="I75" s="6">
         <v>3</v>
       </c>
-      <c r="J75" s="23"/>
+      <c r="J75" s="28"/>
       <c r="L75" s="13">
         <v>31</v>
       </c>
-      <c r="M75" s="14">
+      <c r="M75" s="19">
         <f t="shared" si="4"/>
-        <v>24.161249999999999</v>
-      </c>
-      <c r="N75" s="30">
+        <v>5.2112499999999997</v>
+      </c>
+      <c r="N75" s="20">
         <f t="shared" si="8"/>
         <v>0.47375</v>
       </c>
@@ -5099,7 +5095,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="76" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C76" s="6">
         <v>74</v>
       </c>
@@ -5122,24 +5118,24 @@
       <c r="I76" s="6">
         <v>3</v>
       </c>
-      <c r="J76" s="23"/>
+      <c r="J76" s="28"/>
       <c r="L76" s="13">
         <v>15</v>
       </c>
-      <c r="M76" s="14">
+      <c r="M76" s="19">
         <f t="shared" si="4"/>
-        <v>29.643750000000001</v>
-      </c>
-      <c r="N76" s="30">
+        <v>6.3937499999999998</v>
+      </c>
+      <c r="N76" s="20">
         <f t="shared" si="8"/>
         <v>0.58125000000000004</v>
       </c>
       <c r="O76" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="77" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="77" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C77" s="6">
         <v>75</v>
       </c>
@@ -5162,24 +5158,24 @@
       <c r="I77" s="6">
         <v>3</v>
       </c>
-      <c r="J77" s="23"/>
+      <c r="J77" s="28"/>
       <c r="L77" s="13">
         <v>26</v>
       </c>
-      <c r="M77" s="14">
+      <c r="M77" s="19">
         <f t="shared" si="4"/>
-        <v>27.603750000000002</v>
-      </c>
-      <c r="N77" s="30">
+        <v>5.9537499999999994</v>
+      </c>
+      <c r="N77" s="20">
         <f t="shared" si="8"/>
         <v>0.54125000000000001</v>
       </c>
       <c r="O77" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="78" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="78" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C78" s="6">
         <v>76</v>
       </c>
@@ -5202,15 +5198,15 @@
       <c r="I78" s="6">
         <v>3</v>
       </c>
-      <c r="J78" s="23"/>
+      <c r="J78" s="28"/>
       <c r="L78" s="13">
         <v>53</v>
       </c>
-      <c r="M78" s="14">
+      <c r="M78" s="19">
         <f t="shared" si="4"/>
-        <v>29.835000000000001</v>
-      </c>
-      <c r="N78" s="30">
+        <v>6.4349999999999996</v>
+      </c>
+      <c r="N78" s="20">
         <f t="shared" si="8"/>
         <v>0.58499999999999996</v>
       </c>
@@ -5219,7 +5215,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="79" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C79" s="6">
         <v>77</v>
       </c>
@@ -5242,15 +5238,15 @@
       <c r="I79" s="6">
         <v>3</v>
       </c>
-      <c r="J79" s="23"/>
+      <c r="J79" s="28"/>
       <c r="L79" s="13">
         <v>63</v>
       </c>
-      <c r="M79" s="14">
+      <c r="M79" s="19">
         <f t="shared" si="4"/>
-        <v>25.436250000000001</v>
-      </c>
-      <c r="N79" s="30">
+        <v>5.486250000000001</v>
+      </c>
+      <c r="N79" s="20">
         <f t="shared" si="8"/>
         <v>0.49875000000000008</v>
       </c>
@@ -5259,7 +5255,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="80" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C80" s="6">
         <v>78</v>
       </c>
@@ -5282,15 +5278,15 @@
       <c r="I80" s="6">
         <v>3</v>
       </c>
-      <c r="J80" s="23"/>
+      <c r="J80" s="28"/>
       <c r="L80" s="13">
         <v>34</v>
       </c>
-      <c r="M80" s="14">
+      <c r="M80" s="19">
         <f t="shared" si="4"/>
-        <v>27.54</v>
-      </c>
-      <c r="N80" s="30">
+        <v>5.94</v>
+      </c>
+      <c r="N80" s="20">
         <f t="shared" si="8"/>
         <v>0.54</v>
       </c>
@@ -5299,7 +5295,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C81" s="6">
         <v>79</v>
       </c>
@@ -5322,15 +5318,15 @@
       <c r="I81" s="6">
         <v>3</v>
       </c>
-      <c r="J81" s="23"/>
+      <c r="J81" s="28"/>
       <c r="L81" s="13">
         <v>27</v>
       </c>
-      <c r="M81" s="14">
+      <c r="M81" s="19">
         <f t="shared" si="4"/>
-        <v>23.3325</v>
-      </c>
-      <c r="N81" s="30">
+        <v>5.0324999999999989</v>
+      </c>
+      <c r="N81" s="20">
         <f t="shared" si="8"/>
         <v>0.45749999999999996</v>
       </c>
@@ -5339,7 +5335,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C82" s="6">
         <v>80</v>
       </c>
@@ -5362,15 +5358,15 @@
       <c r="I82" s="6">
         <v>3</v>
       </c>
-      <c r="J82" s="23"/>
+      <c r="J82" s="28"/>
       <c r="L82" s="13">
         <v>36</v>
       </c>
-      <c r="M82" s="14">
+      <c r="M82" s="19">
         <f t="shared" si="4"/>
-        <v>28.942499999999999</v>
-      </c>
-      <c r="N82" s="30">
+        <v>6.2425000000000006</v>
+      </c>
+      <c r="N82" s="20">
         <f t="shared" si="8"/>
         <v>0.56750000000000012</v>
       </c>
@@ -5379,7 +5375,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C83" s="6">
         <v>81</v>
       </c>
@@ -5402,24 +5398,24 @@
       <c r="I83" s="6">
         <v>3</v>
       </c>
-      <c r="J83" s="23"/>
+      <c r="J83" s="28"/>
       <c r="L83" s="13">
         <v>9</v>
       </c>
-      <c r="M83" s="14">
+      <c r="M83" s="19">
         <f t="shared" si="4"/>
-        <v>27.285</v>
-      </c>
-      <c r="N83" s="30">
+        <v>5.8849999999999998</v>
+      </c>
+      <c r="N83" s="20">
         <f t="shared" si="8"/>
         <v>0.53500000000000003</v>
       </c>
       <c r="O83" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C84" s="6">
         <v>82</v>
       </c>
@@ -5442,15 +5438,15 @@
       <c r="I84" s="6">
         <v>3</v>
       </c>
-      <c r="J84" s="23"/>
+      <c r="J84" s="28"/>
       <c r="L84" s="13">
         <v>43</v>
       </c>
-      <c r="M84" s="14">
+      <c r="M84" s="19">
         <f t="shared" si="4"/>
-        <v>26.201250000000002</v>
-      </c>
-      <c r="N84" s="30">
+        <v>5.6512499999999992</v>
+      </c>
+      <c r="N84" s="20">
         <f>(H84*I84)*10%</f>
         <v>0.51374999999999993</v>
       </c>
@@ -5459,7 +5455,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C85" s="6">
         <v>83</v>
       </c>
@@ -5482,15 +5478,15 @@
       <c r="I85" s="6">
         <v>3</v>
       </c>
-      <c r="J85" s="23"/>
+      <c r="J85" s="28"/>
       <c r="L85" s="13">
         <v>59</v>
       </c>
-      <c r="M85" s="14">
+      <c r="M85" s="19">
         <f t="shared" si="4"/>
-        <v>24.862500000000001</v>
-      </c>
-      <c r="N85" s="30">
+        <v>5.3624999999999998</v>
+      </c>
+      <c r="N85" s="20">
         <f t="shared" ref="N85:N93" si="9">(H85*I85)*10%</f>
         <v>0.48750000000000004</v>
       </c>
@@ -5499,7 +5495,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C86" s="6">
         <v>84</v>
       </c>
@@ -5522,15 +5518,15 @@
       <c r="I86" s="6">
         <v>3</v>
       </c>
-      <c r="J86" s="23"/>
+      <c r="J86" s="28"/>
       <c r="L86" s="13">
         <v>55</v>
       </c>
-      <c r="M86" s="14">
+      <c r="M86" s="19">
         <f t="shared" si="4"/>
-        <v>22.695</v>
-      </c>
-      <c r="N86" s="30">
+        <v>4.8950000000000005</v>
+      </c>
+      <c r="N86" s="20">
         <f t="shared" si="9"/>
         <v>0.44500000000000006</v>
       </c>
@@ -5539,7 +5535,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C87" s="6">
         <v>85</v>
       </c>
@@ -5562,24 +5558,24 @@
       <c r="I87" s="6">
         <v>3</v>
       </c>
-      <c r="J87" s="23"/>
+      <c r="J87" s="28"/>
       <c r="L87" s="13">
         <v>26</v>
       </c>
-      <c r="M87" s="14">
+      <c r="M87" s="19">
         <f t="shared" si="4"/>
-        <v>31.4925</v>
-      </c>
-      <c r="N87" s="30">
+        <v>6.7924999999999986</v>
+      </c>
+      <c r="N87" s="20">
         <f t="shared" si="9"/>
         <v>0.61749999999999994</v>
       </c>
       <c r="O87" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C88" s="6">
         <v>86</v>
       </c>
@@ -5602,15 +5598,15 @@
       <c r="I88" s="6">
         <v>3</v>
       </c>
-      <c r="J88" s="23"/>
+      <c r="J88" s="28"/>
       <c r="L88" s="13">
         <v>71</v>
       </c>
-      <c r="M88" s="14">
+      <c r="M88" s="19">
         <f t="shared" si="4"/>
-        <v>30.982500000000002</v>
-      </c>
-      <c r="N88" s="30">
+        <v>6.6824999999999992</v>
+      </c>
+      <c r="N88" s="20">
         <f t="shared" si="9"/>
         <v>0.60749999999999993</v>
       </c>
@@ -5619,7 +5615,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C89" s="6">
         <v>87</v>
       </c>
@@ -5642,15 +5638,15 @@
       <c r="I89" s="6">
         <v>3</v>
       </c>
-      <c r="J89" s="23"/>
+      <c r="J89" s="28"/>
       <c r="L89" s="13">
         <v>46</v>
       </c>
-      <c r="M89" s="14">
+      <c r="M89" s="19">
         <f t="shared" si="4"/>
-        <v>27.285</v>
-      </c>
-      <c r="N89" s="30">
+        <v>5.8849999999999998</v>
+      </c>
+      <c r="N89" s="20">
         <f t="shared" si="9"/>
         <v>0.53500000000000003</v>
       </c>
@@ -5659,7 +5655,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C90" s="6">
         <v>88</v>
       </c>
@@ -5682,24 +5678,24 @@
       <c r="I90" s="6">
         <v>3</v>
       </c>
-      <c r="J90" s="23"/>
+      <c r="J90" s="28"/>
       <c r="L90" s="13">
         <v>18</v>
       </c>
-      <c r="M90" s="14">
+      <c r="M90" s="19">
         <f t="shared" si="4"/>
-        <v>28.6875</v>
-      </c>
-      <c r="N90" s="30">
+        <v>6.1875</v>
+      </c>
+      <c r="N90" s="20">
         <f t="shared" si="9"/>
         <v>0.5625</v>
       </c>
       <c r="O90" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C91" s="6">
         <v>89</v>
       </c>
@@ -5722,15 +5718,15 @@
       <c r="I91" s="6">
         <v>3</v>
       </c>
-      <c r="J91" s="23"/>
+      <c r="J91" s="28"/>
       <c r="L91" s="13">
         <v>77</v>
       </c>
-      <c r="M91" s="14">
+      <c r="M91" s="19">
         <f t="shared" si="4"/>
-        <v>24.48</v>
-      </c>
-      <c r="N91" s="30">
+        <v>5.2800000000000011</v>
+      </c>
+      <c r="N91" s="20">
         <f t="shared" si="9"/>
         <v>0.48000000000000009</v>
       </c>
@@ -5739,7 +5735,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C92" s="6">
         <v>90</v>
       </c>
@@ -5762,15 +5758,15 @@
       <c r="I92" s="6">
         <v>3</v>
       </c>
-      <c r="J92" s="23"/>
+      <c r="J92" s="28"/>
       <c r="L92" s="13">
         <v>47</v>
       </c>
-      <c r="M92" s="14">
+      <c r="M92" s="19">
         <f t="shared" si="4"/>
-        <v>30.6</v>
-      </c>
-      <c r="N92" s="30">
+        <v>6.6</v>
+      </c>
+      <c r="N92" s="20">
         <f t="shared" si="9"/>
         <v>0.60000000000000009</v>
       </c>
@@ -5779,7 +5775,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C93" s="6">
         <v>91</v>
       </c>
@@ -5802,24 +5798,24 @@
       <c r="I93" s="6">
         <v>3</v>
       </c>
-      <c r="J93" s="23"/>
+      <c r="J93" s="28"/>
       <c r="L93" s="13">
         <v>13</v>
       </c>
-      <c r="M93" s="14">
+      <c r="M93" s="19">
         <f t="shared" si="4"/>
-        <v>23.396249999999998</v>
-      </c>
-      <c r="N93" s="30">
+        <v>5.0462499999999997</v>
+      </c>
+      <c r="N93" s="20">
         <f t="shared" si="9"/>
         <v>0.45874999999999999</v>
       </c>
       <c r="O93" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C94" s="6">
         <v>92</v>
       </c>
@@ -5842,24 +5838,24 @@
       <c r="I94" s="6">
         <v>3</v>
       </c>
-      <c r="J94" s="23"/>
+      <c r="J94" s="28"/>
       <c r="L94" s="13">
         <v>8</v>
       </c>
-      <c r="M94" s="14">
+      <c r="M94" s="19">
         <f t="shared" si="4"/>
-        <v>25.8825</v>
-      </c>
-      <c r="N94" s="30">
+        <v>5.5825000000000014</v>
+      </c>
+      <c r="N94" s="20">
         <f>(H94*I94)*10%</f>
         <v>0.50750000000000017</v>
       </c>
       <c r="O94" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C95" s="6">
         <v>93</v>
       </c>
@@ -5882,15 +5878,15 @@
       <c r="I95" s="6">
         <v>3</v>
       </c>
-      <c r="J95" s="23"/>
+      <c r="J95" s="28"/>
       <c r="L95" s="13">
         <v>29</v>
       </c>
-      <c r="M95" s="14">
+      <c r="M95" s="19">
         <f t="shared" si="4"/>
-        <v>26.392499999999998</v>
-      </c>
-      <c r="N95" s="30">
+        <v>5.6925000000000008</v>
+      </c>
+      <c r="N95" s="20">
         <f t="shared" ref="N95:N103" si="10">(H95*I95)*10%</f>
         <v>0.51750000000000007</v>
       </c>
@@ -5899,7 +5895,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C96" s="6">
         <v>94</v>
       </c>
@@ -5922,15 +5918,15 @@
       <c r="I96" s="6">
         <v>3</v>
       </c>
-      <c r="J96" s="23"/>
+      <c r="J96" s="28"/>
       <c r="L96" s="13">
         <v>68</v>
       </c>
-      <c r="M96" s="14">
+      <c r="M96" s="19">
         <f t="shared" si="4"/>
-        <v>30.344999999999999</v>
-      </c>
-      <c r="N96" s="30">
+        <v>6.544999999999999</v>
+      </c>
+      <c r="N96" s="20">
         <f t="shared" si="10"/>
         <v>0.59499999999999997</v>
       </c>
@@ -5939,7 +5935,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C97" s="6">
         <v>95</v>
       </c>
@@ -5962,15 +5958,15 @@
       <c r="I97" s="6">
         <v>3</v>
       </c>
-      <c r="J97" s="23"/>
+      <c r="J97" s="28"/>
       <c r="L97" s="13">
         <v>27</v>
       </c>
-      <c r="M97" s="14">
+      <c r="M97" s="19">
         <f t="shared" si="4"/>
-        <v>22.44</v>
-      </c>
-      <c r="N97" s="30">
+        <v>4.84</v>
+      </c>
+      <c r="N97" s="20">
         <f t="shared" si="10"/>
         <v>0.43999999999999995</v>
       </c>
@@ -5979,7 +5975,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C98" s="6">
         <v>96</v>
       </c>
@@ -6002,15 +5998,15 @@
       <c r="I98" s="6">
         <v>3</v>
       </c>
-      <c r="J98" s="23"/>
+      <c r="J98" s="28"/>
       <c r="L98" s="13">
         <v>68</v>
       </c>
-      <c r="M98" s="14">
+      <c r="M98" s="19">
         <f t="shared" si="4"/>
-        <v>29.197500000000002</v>
-      </c>
-      <c r="N98" s="30">
+        <v>6.2974999999999994</v>
+      </c>
+      <c r="N98" s="20">
         <f t="shared" si="10"/>
         <v>0.57250000000000001</v>
       </c>
@@ -6019,7 +6015,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C99" s="6">
         <v>97</v>
       </c>
@@ -6042,15 +6038,15 @@
       <c r="I99" s="6">
         <v>3</v>
       </c>
-      <c r="J99" s="23"/>
+      <c r="J99" s="28"/>
       <c r="L99" s="13">
         <v>38</v>
       </c>
-      <c r="M99" s="14">
+      <c r="M99" s="19">
         <f t="shared" si="4"/>
-        <v>28.942499999999999</v>
-      </c>
-      <c r="N99" s="30">
+        <v>6.2425000000000006</v>
+      </c>
+      <c r="N99" s="20">
         <f t="shared" si="10"/>
         <v>0.56750000000000012</v>
       </c>
@@ -6059,7 +6055,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C100" s="6">
         <v>98</v>
       </c>
@@ -6082,15 +6078,15 @@
       <c r="I100" s="6">
         <v>3</v>
       </c>
-      <c r="J100" s="23"/>
+      <c r="J100" s="28"/>
       <c r="L100" s="13">
         <v>71</v>
       </c>
-      <c r="M100" s="14">
+      <c r="M100" s="19">
         <f t="shared" si="4"/>
-        <v>30.791250000000002</v>
-      </c>
-      <c r="N100" s="30">
+        <v>6.6412500000000003</v>
+      </c>
+      <c r="N100" s="20">
         <f t="shared" si="10"/>
         <v>0.60375000000000012</v>
       </c>
@@ -6099,7 +6095,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C101" s="6">
         <v>99</v>
       </c>
@@ -6122,24 +6118,24 @@
       <c r="I101" s="6">
         <v>3</v>
       </c>
-      <c r="J101" s="23"/>
+      <c r="J101" s="28"/>
       <c r="L101" s="13">
         <v>14</v>
       </c>
-      <c r="M101" s="14">
+      <c r="M101" s="19">
         <f t="shared" si="4"/>
-        <v>26.838750000000001</v>
-      </c>
-      <c r="N101" s="30">
+        <v>5.7887500000000012</v>
+      </c>
+      <c r="N101" s="20">
         <f t="shared" si="10"/>
         <v>0.52625000000000011</v>
       </c>
       <c r="O101" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C102" s="6">
         <v>100</v>
       </c>
@@ -6162,15 +6158,15 @@
       <c r="I102" s="6">
         <v>3</v>
       </c>
-      <c r="J102" s="23"/>
+      <c r="J102" s="28"/>
       <c r="L102" s="13">
         <v>33</v>
       </c>
-      <c r="M102" s="14">
+      <c r="M102" s="19">
         <f t="shared" si="4"/>
-        <v>22.88625</v>
-      </c>
-      <c r="N102" s="30">
+        <v>4.9362499999999994</v>
+      </c>
+      <c r="N102" s="20">
         <f t="shared" si="10"/>
         <v>0.44874999999999998</v>
       </c>
@@ -6179,7 +6175,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="103" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C103" s="6">
         <v>101</v>
       </c>
@@ -6202,24 +6198,24 @@
       <c r="I103" s="6">
         <v>3</v>
       </c>
-      <c r="J103" s="23"/>
+      <c r="J103" s="28"/>
       <c r="L103" s="13">
         <v>16</v>
       </c>
-      <c r="M103" s="14">
+      <c r="M103" s="19">
         <f t="shared" si="4"/>
-        <v>30.026250000000001</v>
-      </c>
-      <c r="N103" s="30">
+        <v>6.4762499999999994</v>
+      </c>
+      <c r="N103" s="20">
         <f t="shared" si="10"/>
         <v>0.58875</v>
       </c>
       <c r="O103" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="104" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="104" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C104" s="6">
         <v>102</v>
       </c>
@@ -6242,15 +6238,15 @@
       <c r="I104" s="6">
         <v>3</v>
       </c>
-      <c r="J104" s="23"/>
+      <c r="J104" s="28"/>
       <c r="L104" s="13">
         <v>61</v>
       </c>
-      <c r="M104" s="14">
+      <c r="M104" s="19">
         <f t="shared" si="4"/>
-        <v>26.966249999999999</v>
-      </c>
-      <c r="N104" s="30">
+        <v>5.8162499999999993</v>
+      </c>
+      <c r="N104" s="20">
         <f>(H104*I104)*10%</f>
         <v>0.52874999999999994</v>
       </c>
@@ -6259,7 +6255,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="105" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C105" s="6">
         <v>103</v>
       </c>
@@ -6282,15 +6278,15 @@
       <c r="I105" s="6">
         <v>3</v>
       </c>
-      <c r="J105" s="23"/>
+      <c r="J105" s="28"/>
       <c r="L105" s="13">
         <v>51</v>
       </c>
-      <c r="M105" s="14">
+      <c r="M105" s="19">
         <f t="shared" si="4"/>
-        <v>26.201250000000002</v>
-      </c>
-      <c r="N105" s="30">
+        <v>5.6512499999999992</v>
+      </c>
+      <c r="N105" s="20">
         <f t="shared" ref="N105:N114" si="11">(H105*I105)*10%</f>
         <v>0.51374999999999993</v>
       </c>
@@ -6299,7 +6295,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="106" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C106" s="6">
         <v>104</v>
       </c>
@@ -6312,7 +6308,7 @@
       <c r="F106" s="13">
         <v>6</v>
       </c>
-      <c r="G106" s="27">
+      <c r="G106" s="17">
         <v>7.458333333333333</v>
       </c>
       <c r="H106" s="8">
@@ -6322,24 +6318,24 @@
       <c r="I106" s="6">
         <v>3</v>
       </c>
-      <c r="J106" s="23"/>
+      <c r="J106" s="28"/>
       <c r="L106" s="13">
         <v>6</v>
       </c>
-      <c r="M106" s="14">
+      <c r="M106" s="19">
         <f t="shared" si="4"/>
-        <v>22.822500000000002</v>
-      </c>
-      <c r="N106" s="30">
+        <v>4.9224999999999994</v>
+      </c>
+      <c r="N106" s="20">
         <f t="shared" si="11"/>
         <v>0.44750000000000001</v>
       </c>
       <c r="O106" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="107" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="107" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C107" s="6">
         <v>105</v>
       </c>
@@ -6362,15 +6358,15 @@
       <c r="I107" s="6">
         <v>3</v>
       </c>
-      <c r="J107" s="23"/>
+      <c r="J107" s="28"/>
       <c r="L107" s="13">
         <v>54</v>
       </c>
-      <c r="M107" s="14">
+      <c r="M107" s="19">
         <f t="shared" si="4"/>
-        <v>29.26125</v>
-      </c>
-      <c r="N107" s="30">
+        <v>6.3112500000000011</v>
+      </c>
+      <c r="N107" s="20">
         <f t="shared" si="11"/>
         <v>0.57375000000000009</v>
       </c>
@@ -6379,7 +6375,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="108" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C108" s="6">
         <v>106</v>
       </c>
@@ -6402,15 +6398,15 @@
       <c r="I108" s="6">
         <v>3</v>
       </c>
-      <c r="J108" s="23"/>
+      <c r="J108" s="28"/>
       <c r="L108" s="13">
         <v>59</v>
       </c>
-      <c r="M108" s="14">
+      <c r="M108" s="19">
         <f t="shared" si="4"/>
-        <v>24.161249999999999</v>
-      </c>
-      <c r="N108" s="30">
+        <v>5.2112499999999997</v>
+      </c>
+      <c r="N108" s="20">
         <f t="shared" si="11"/>
         <v>0.47375</v>
       </c>
@@ -6419,7 +6415,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="109" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C109" s="6">
         <v>107</v>
       </c>
@@ -6442,24 +6438,24 @@
       <c r="I109" s="6">
         <v>3</v>
       </c>
-      <c r="J109" s="23"/>
+      <c r="J109" s="28"/>
       <c r="L109" s="13">
         <v>10</v>
       </c>
-      <c r="M109" s="14">
+      <c r="M109" s="19">
         <f t="shared" si="4"/>
-        <v>24.225000000000001</v>
-      </c>
-      <c r="N109" s="30">
+        <v>5.2249999999999996</v>
+      </c>
+      <c r="N109" s="20">
         <f t="shared" si="11"/>
         <v>0.47500000000000003</v>
       </c>
       <c r="O109" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="110" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="110" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C110" s="6">
         <v>108</v>
       </c>
@@ -6472,7 +6468,7 @@
       <c r="F110" s="13">
         <v>73</v>
       </c>
-      <c r="G110" s="27">
+      <c r="G110" s="17">
         <v>10.020833333333334</v>
       </c>
       <c r="H110" s="8">
@@ -6482,15 +6478,15 @@
       <c r="I110" s="6">
         <v>3</v>
       </c>
-      <c r="J110" s="23"/>
+      <c r="J110" s="28"/>
       <c r="L110" s="13">
         <v>73</v>
       </c>
-      <c r="M110" s="14">
+      <c r="M110" s="19">
         <f t="shared" si="4"/>
-        <v>30.66375</v>
-      </c>
-      <c r="N110" s="30">
+        <v>6.6137500000000014</v>
+      </c>
+      <c r="N110" s="20">
         <f t="shared" si="11"/>
         <v>0.60125000000000017</v>
       </c>
@@ -6499,7 +6495,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="111" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C111" s="6">
         <v>109</v>
       </c>
@@ -6522,15 +6518,15 @@
       <c r="I111" s="6">
         <v>3</v>
       </c>
-      <c r="J111" s="23"/>
+      <c r="J111" s="28"/>
       <c r="L111" s="13">
         <v>64</v>
       </c>
-      <c r="M111" s="14">
+      <c r="M111" s="19">
         <f t="shared" si="4"/>
-        <v>26.838750000000001</v>
-      </c>
-      <c r="N111" s="30">
+        <v>5.7887500000000012</v>
+      </c>
+      <c r="N111" s="20">
         <f t="shared" si="11"/>
         <v>0.52625000000000011</v>
       </c>
@@ -6539,7 +6535,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="112" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C112" s="6">
         <v>110</v>
       </c>
@@ -6562,24 +6558,24 @@
       <c r="I112" s="6">
         <v>3</v>
       </c>
-      <c r="J112" s="23"/>
+      <c r="J112" s="28"/>
       <c r="L112" s="13">
         <v>25</v>
       </c>
-      <c r="M112" s="14">
+      <c r="M112" s="19">
         <f t="shared" si="4"/>
-        <v>26.647500000000001</v>
-      </c>
-      <c r="N112" s="30">
+        <v>5.7474999999999996</v>
+      </c>
+      <c r="N112" s="20">
         <f t="shared" si="11"/>
         <v>0.52249999999999996</v>
       </c>
       <c r="O112" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="113" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="113" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C113" s="6">
         <v>111</v>
       </c>
@@ -6602,24 +6598,24 @@
       <c r="I113" s="6">
         <v>3</v>
       </c>
-      <c r="J113" s="23"/>
+      <c r="J113" s="28"/>
       <c r="L113" s="13">
         <v>20</v>
       </c>
-      <c r="M113" s="14">
+      <c r="M113" s="19">
         <f t="shared" si="4"/>
-        <v>22.631250000000001</v>
-      </c>
-      <c r="N113" s="30">
+        <v>4.8812499999999996</v>
+      </c>
+      <c r="N113" s="20">
         <f t="shared" si="11"/>
         <v>0.44375000000000003</v>
       </c>
       <c r="O113" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="114" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="114" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C114" s="6">
         <v>112</v>
       </c>
@@ -6629,7 +6625,7 @@
       <c r="E114" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="F114" s="15">
+      <c r="F114" s="14">
         <v>59</v>
       </c>
       <c r="G114" s="7">
@@ -6642,15 +6638,15 @@
       <c r="I114" s="6">
         <v>3</v>
       </c>
-      <c r="J114" s="23"/>
-      <c r="L114" s="15">
+      <c r="J114" s="28"/>
+      <c r="L114" s="14">
         <v>59</v>
       </c>
-      <c r="M114" s="14">
+      <c r="M114" s="19">
         <f t="shared" si="4"/>
-        <v>25.1175</v>
-      </c>
-      <c r="N114" s="30">
+        <v>5.4175000000000004</v>
+      </c>
+      <c r="N114" s="20">
         <f t="shared" si="11"/>
         <v>0.4925000000000001</v>
       </c>
@@ -6659,7 +6655,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="115" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C115" s="6">
         <v>113</v>
       </c>
@@ -6669,7 +6665,7 @@
       <c r="E115" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F115" s="15">
+      <c r="F115" s="14">
         <v>30</v>
       </c>
       <c r="G115" s="7">
@@ -6682,15 +6678,15 @@
       <c r="I115" s="6">
         <v>3</v>
       </c>
-      <c r="J115" s="23"/>
-      <c r="L115" s="16">
+      <c r="J115" s="28"/>
+      <c r="L115" s="15">
         <v>30</v>
       </c>
-      <c r="M115" s="14">
+      <c r="M115" s="19">
         <f t="shared" si="4"/>
-        <v>25.818750000000001</v>
-      </c>
-      <c r="N115" s="30">
+        <v>5.5687499999999996</v>
+      </c>
+      <c r="N115" s="20">
         <f>(H115*I115)*10%</f>
         <v>0.50624999999999998</v>
       </c>
@@ -6699,7 +6695,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="116" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C116" s="6">
         <v>114</v>
       </c>
@@ -6709,7 +6705,7 @@
       <c r="E116" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F116" s="15">
+      <c r="F116" s="14">
         <v>60</v>
       </c>
       <c r="G116" s="7">
@@ -6722,15 +6718,15 @@
       <c r="I116" s="6">
         <v>3</v>
       </c>
-      <c r="J116" s="23"/>
-      <c r="L116" s="16">
+      <c r="J116" s="28"/>
+      <c r="L116" s="15">
         <v>60</v>
       </c>
-      <c r="M116" s="14">
+      <c r="M116" s="19">
         <f t="shared" si="4"/>
-        <v>26.392499999999998</v>
-      </c>
-      <c r="N116" s="30">
+        <v>5.6925000000000008</v>
+      </c>
+      <c r="N116" s="20">
         <f t="shared" ref="N116:N123" si="12">(H116*I116)*10%</f>
         <v>0.51750000000000007</v>
       </c>
@@ -6739,7 +6735,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="117" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C117" s="6">
         <v>115</v>
       </c>
@@ -6749,7 +6745,7 @@
       <c r="E117" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F117" s="15">
+      <c r="F117" s="14">
         <v>39</v>
       </c>
       <c r="G117" s="7">
@@ -6762,15 +6758,15 @@
       <c r="I117" s="6">
         <v>3</v>
       </c>
-      <c r="J117" s="23"/>
+      <c r="J117" s="28"/>
       <c r="L117" s="13">
         <v>39</v>
       </c>
-      <c r="M117" s="14">
+      <c r="M117" s="19">
         <f t="shared" si="4"/>
-        <v>27.986249999999998</v>
-      </c>
-      <c r="N117" s="30">
+        <v>6.0362500000000008</v>
+      </c>
+      <c r="N117" s="20">
         <f t="shared" si="12"/>
         <v>0.54875000000000007</v>
       </c>
@@ -6779,7 +6775,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="118" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C118" s="6">
         <v>116</v>
       </c>
@@ -6789,7 +6785,7 @@
       <c r="E118" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F118" s="15">
+      <c r="F118" s="14">
         <v>23</v>
       </c>
       <c r="G118" s="7">
@@ -6802,24 +6798,24 @@
       <c r="I118" s="6">
         <v>3</v>
       </c>
-      <c r="J118" s="23"/>
+      <c r="J118" s="28"/>
       <c r="L118" s="13">
         <v>23</v>
       </c>
-      <c r="M118" s="14">
+      <c r="M118" s="19">
         <f t="shared" si="4"/>
-        <v>28.815000000000001</v>
-      </c>
-      <c r="N118" s="30">
+        <v>6.2150000000000007</v>
+      </c>
+      <c r="N118" s="20">
         <f t="shared" si="12"/>
         <v>0.56500000000000006</v>
       </c>
       <c r="O118" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="119" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="119" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C119" s="6">
         <v>117</v>
       </c>
@@ -6829,7 +6825,7 @@
       <c r="E119" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F119" s="15">
+      <c r="F119" s="14">
         <v>29</v>
       </c>
       <c r="G119" s="7">
@@ -6842,15 +6838,15 @@
       <c r="I119" s="6">
         <v>3</v>
       </c>
-      <c r="J119" s="23"/>
+      <c r="J119" s="28"/>
       <c r="L119" s="13">
         <v>29</v>
       </c>
-      <c r="M119" s="14">
+      <c r="M119" s="19">
         <f t="shared" si="4"/>
-        <v>25.818750000000001</v>
-      </c>
-      <c r="N119" s="30">
+        <v>5.5687499999999996</v>
+      </c>
+      <c r="N119" s="20">
         <f t="shared" si="12"/>
         <v>0.50624999999999998</v>
       </c>
@@ -6859,7 +6855,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="120" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C120" s="6">
         <v>118</v>
       </c>
@@ -6869,7 +6865,7 @@
       <c r="E120" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="F120" s="15">
+      <c r="F120" s="14">
         <v>48</v>
       </c>
       <c r="G120" s="7">
@@ -6882,15 +6878,15 @@
       <c r="I120" s="6">
         <v>3</v>
       </c>
-      <c r="J120" s="23"/>
+      <c r="J120" s="28"/>
       <c r="L120" s="13">
         <v>48</v>
       </c>
-      <c r="M120" s="14">
+      <c r="M120" s="19">
         <f t="shared" si="4"/>
-        <v>27.412500000000001</v>
-      </c>
-      <c r="N120" s="30">
+        <v>5.9124999999999996</v>
+      </c>
+      <c r="N120" s="20">
         <f t="shared" si="12"/>
         <v>0.53749999999999998</v>
       </c>
@@ -6899,7 +6895,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="121" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C121" s="6">
         <v>119</v>
       </c>
@@ -6909,7 +6905,7 @@
       <c r="E121" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F121" s="15">
+      <c r="F121" s="14">
         <v>65</v>
       </c>
       <c r="G121" s="7">
@@ -6922,15 +6918,15 @@
       <c r="I121" s="6">
         <v>3</v>
       </c>
-      <c r="J121" s="23"/>
+      <c r="J121" s="28"/>
       <c r="L121" s="13">
         <v>65</v>
       </c>
-      <c r="M121" s="14">
+      <c r="M121" s="19">
         <f t="shared" si="4"/>
-        <v>25.5</v>
-      </c>
-      <c r="N121" s="30">
+        <v>5.5</v>
+      </c>
+      <c r="N121" s="20">
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
@@ -6939,7 +6935,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="122" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C122" s="6">
         <v>120</v>
       </c>
@@ -6949,7 +6945,7 @@
       <c r="E122" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="F122" s="15">
+      <c r="F122" s="14">
         <v>1</v>
       </c>
       <c r="G122" s="7">
@@ -6962,15 +6958,15 @@
       <c r="I122" s="6">
         <v>3</v>
       </c>
-      <c r="J122" s="23"/>
+      <c r="J122" s="28"/>
       <c r="L122" s="13">
         <v>1</v>
       </c>
-      <c r="M122" s="14">
+      <c r="M122" s="19">
         <f t="shared" si="4"/>
-        <v>24.416250000000002</v>
-      </c>
-      <c r="N122" s="30">
+        <v>5.2662500000000003</v>
+      </c>
+      <c r="N122" s="20">
         <f t="shared" si="12"/>
         <v>0.47875000000000006</v>
       </c>
@@ -6979,7 +6975,7 @@
         <v>Warning ! Material harus segera dibeli</v>
       </c>
     </row>
-    <row r="123" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C123" s="6">
         <v>121</v>
       </c>
@@ -6989,7 +6985,7 @@
       <c r="E123" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F123" s="15">
+      <c r="F123" s="14">
         <v>66</v>
       </c>
       <c r="G123" s="7">
@@ -7002,15 +6998,15 @@
       <c r="I123" s="6">
         <v>3</v>
       </c>
-      <c r="J123" s="23"/>
+      <c r="J123" s="28"/>
       <c r="L123" s="13">
         <v>66</v>
       </c>
-      <c r="M123" s="14">
+      <c r="M123" s="19">
         <f t="shared" si="4"/>
-        <v>27.348749999999999</v>
-      </c>
-      <c r="N123" s="30">
+        <v>5.8987500000000006</v>
+      </c>
+      <c r="N123" s="20">
         <f t="shared" si="12"/>
         <v>0.53625000000000012</v>
       </c>
@@ -7019,7 +7015,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="124" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C124" s="6">
         <v>122</v>
       </c>
@@ -7029,7 +7025,7 @@
       <c r="E124" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F124" s="15">
+      <c r="F124" s="14">
         <v>8</v>
       </c>
       <c r="G124" s="7">
@@ -7042,24 +7038,24 @@
       <c r="I124" s="6">
         <v>3</v>
       </c>
-      <c r="J124" s="23"/>
+      <c r="J124" s="28"/>
       <c r="L124" s="13">
         <v>8</v>
       </c>
-      <c r="M124" s="14">
+      <c r="M124" s="19">
         <f t="shared" si="4"/>
-        <v>27.221250000000001</v>
-      </c>
-      <c r="N124" s="30">
+        <v>5.8712500000000007</v>
+      </c>
+      <c r="N124" s="20">
         <f>(H124*I124)*10%</f>
         <v>0.53375000000000006</v>
       </c>
       <c r="O124" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="125" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="125" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C125" s="6">
         <v>123</v>
       </c>
@@ -7069,7 +7065,7 @@
       <c r="E125" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F125" s="15">
+      <c r="F125" s="14">
         <v>10</v>
       </c>
       <c r="G125" s="7">
@@ -7082,24 +7078,24 @@
       <c r="I125" s="6">
         <v>3</v>
       </c>
-      <c r="J125" s="23"/>
+      <c r="J125" s="28"/>
       <c r="L125" s="13">
         <v>10</v>
       </c>
-      <c r="M125" s="14">
+      <c r="M125" s="19">
         <f t="shared" si="4"/>
-        <v>27.795000000000002</v>
-      </c>
-      <c r="N125" s="30">
+        <v>5.995000000000001</v>
+      </c>
+      <c r="N125" s="20">
         <f t="shared" ref="N125:N133" si="13">(H125*I125)*10%</f>
         <v>0.54500000000000015</v>
       </c>
       <c r="O125" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="126" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="126" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C126" s="6">
         <v>124</v>
       </c>
@@ -7109,7 +7105,7 @@
       <c r="E126" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F126" s="15">
+      <c r="F126" s="14">
         <v>23</v>
       </c>
       <c r="G126" s="7">
@@ -7122,24 +7118,24 @@
       <c r="I126" s="6">
         <v>3</v>
       </c>
-      <c r="J126" s="23"/>
+      <c r="J126" s="28"/>
       <c r="L126" s="13">
         <v>23</v>
       </c>
-      <c r="M126" s="14">
+      <c r="M126" s="19">
         <f t="shared" si="4"/>
-        <v>27.348749999999999</v>
-      </c>
-      <c r="N126" s="30">
+        <v>5.8987500000000006</v>
+      </c>
+      <c r="N126" s="20">
         <f t="shared" si="13"/>
         <v>0.53625000000000012</v>
       </c>
       <c r="O126" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="127" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="127" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C127" s="6">
         <v>125</v>
       </c>
@@ -7149,7 +7145,7 @@
       <c r="E127" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F127" s="15">
+      <c r="F127" s="14">
         <v>34</v>
       </c>
       <c r="G127" s="7">
@@ -7162,15 +7158,15 @@
       <c r="I127" s="6">
         <v>3</v>
       </c>
-      <c r="J127" s="23"/>
+      <c r="J127" s="28"/>
       <c r="L127" s="13">
         <v>34</v>
       </c>
-      <c r="M127" s="14">
+      <c r="M127" s="19">
         <f t="shared" si="4"/>
-        <v>31.62</v>
-      </c>
-      <c r="N127" s="30">
+        <v>6.8200000000000012</v>
+      </c>
+      <c r="N127" s="20">
         <f t="shared" si="13"/>
         <v>0.62000000000000011</v>
       </c>
@@ -7179,7 +7175,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="128" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C128" s="6">
         <v>126</v>
       </c>
@@ -7189,7 +7185,7 @@
       <c r="E128" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="F128" s="15">
+      <c r="F128" s="14">
         <v>58</v>
       </c>
       <c r="G128" s="7">
@@ -7202,15 +7198,15 @@
       <c r="I128" s="6">
         <v>3</v>
       </c>
-      <c r="J128" s="23"/>
+      <c r="J128" s="28"/>
       <c r="L128" s="13">
         <v>58</v>
       </c>
-      <c r="M128" s="14">
+      <c r="M128" s="19">
         <f t="shared" si="4"/>
-        <v>27.412500000000001</v>
-      </c>
-      <c r="N128" s="30">
+        <v>5.9124999999999996</v>
+      </c>
+      <c r="N128" s="20">
         <f t="shared" si="13"/>
         <v>0.53749999999999998</v>
       </c>
@@ -7219,7 +7215,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="129" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C129" s="6">
         <v>127</v>
       </c>
@@ -7229,7 +7225,7 @@
       <c r="E129" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="F129" s="15">
+      <c r="F129" s="14">
         <v>49</v>
       </c>
       <c r="G129" s="7">
@@ -7242,15 +7238,15 @@
       <c r="I129" s="6">
         <v>3</v>
       </c>
-      <c r="J129" s="23"/>
+      <c r="J129" s="28"/>
       <c r="L129" s="13">
         <v>49</v>
       </c>
-      <c r="M129" s="14">
+      <c r="M129" s="19">
         <f t="shared" si="4"/>
-        <v>26.07375</v>
-      </c>
-      <c r="N129" s="30">
+        <v>5.6237500000000011</v>
+      </c>
+      <c r="N129" s="20">
         <f t="shared" si="13"/>
         <v>0.51125000000000009</v>
       </c>
@@ -7259,7 +7255,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="130" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C130" s="6">
         <v>128</v>
       </c>
@@ -7269,7 +7265,7 @@
       <c r="E130" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F130" s="15">
+      <c r="F130" s="14">
         <v>56</v>
       </c>
       <c r="G130" s="7">
@@ -7282,15 +7278,15 @@
       <c r="I130" s="6">
         <v>3</v>
       </c>
-      <c r="J130" s="23"/>
+      <c r="J130" s="28"/>
       <c r="L130" s="13">
         <v>56</v>
       </c>
-      <c r="M130" s="14">
+      <c r="M130" s="19">
         <f t="shared" si="4"/>
-        <v>29.962499999999999</v>
-      </c>
-      <c r="N130" s="30">
+        <v>6.4625000000000004</v>
+      </c>
+      <c r="N130" s="20">
         <f t="shared" si="13"/>
         <v>0.58750000000000002</v>
       </c>
@@ -7299,7 +7295,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="131" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C131" s="6">
         <v>129</v>
       </c>
@@ -7309,7 +7305,7 @@
       <c r="E131" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F131" s="15">
+      <c r="F131" s="14">
         <v>50</v>
       </c>
       <c r="G131" s="7">
@@ -7322,15 +7318,15 @@
       <c r="I131" s="6">
         <v>3</v>
       </c>
-      <c r="J131" s="23"/>
+      <c r="J131" s="28"/>
       <c r="L131" s="13">
         <v>50</v>
       </c>
-      <c r="M131" s="14">
-        <f t="shared" ref="M131:M194" si="14">(G131*I131)+N131</f>
-        <v>25.436250000000001</v>
-      </c>
-      <c r="N131" s="30">
+      <c r="M131" s="19">
+        <f t="shared" si="4"/>
+        <v>5.486250000000001</v>
+      </c>
+      <c r="N131" s="20">
         <f t="shared" si="13"/>
         <v>0.49875000000000008</v>
       </c>
@@ -7339,7 +7335,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="132" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C132" s="6">
         <v>130</v>
       </c>
@@ -7349,7 +7345,7 @@
       <c r="E132" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F132" s="15">
+      <c r="F132" s="14">
         <v>69</v>
       </c>
       <c r="G132" s="7">
@@ -7362,15 +7358,15 @@
       <c r="I132" s="6">
         <v>3</v>
       </c>
-      <c r="J132" s="23"/>
+      <c r="J132" s="28"/>
       <c r="L132" s="13">
         <v>69</v>
       </c>
-      <c r="M132" s="14">
-        <f t="shared" si="14"/>
-        <v>27.285</v>
-      </c>
-      <c r="N132" s="30">
+      <c r="M132" s="19">
+        <f t="shared" ref="M132:M195" si="14">(H132*I132)+N132</f>
+        <v>5.8849999999999998</v>
+      </c>
+      <c r="N132" s="20">
         <f t="shared" si="13"/>
         <v>0.53500000000000003</v>
       </c>
@@ -7379,7 +7375,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="133" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C133" s="6">
         <v>131</v>
       </c>
@@ -7389,7 +7385,7 @@
       <c r="E133" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F133" s="15">
+      <c r="F133" s="14">
         <v>25</v>
       </c>
       <c r="G133" s="7">
@@ -7402,24 +7398,24 @@
       <c r="I133" s="6">
         <v>3</v>
       </c>
-      <c r="J133" s="23"/>
+      <c r="J133" s="28"/>
       <c r="L133" s="13">
         <v>25</v>
       </c>
-      <c r="M133" s="14">
+      <c r="M133" s="19">
         <f t="shared" si="14"/>
-        <v>29.07</v>
-      </c>
-      <c r="N133" s="30">
+        <v>6.27</v>
+      </c>
+      <c r="N133" s="20">
         <f t="shared" si="13"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="O133" s="13" t="str">
         <f t="shared" si="15"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="134" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="134" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C134" s="6">
         <v>132</v>
       </c>
@@ -7429,7 +7425,7 @@
       <c r="E134" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="F134" s="15">
+      <c r="F134" s="14">
         <v>41</v>
       </c>
       <c r="G134" s="7">
@@ -7442,15 +7438,15 @@
       <c r="I134" s="6">
         <v>3</v>
       </c>
-      <c r="J134" s="23"/>
+      <c r="J134" s="28"/>
       <c r="L134" s="13">
         <v>41</v>
       </c>
-      <c r="M134" s="14">
+      <c r="M134" s="19">
         <f t="shared" si="14"/>
-        <v>31.747499999999999</v>
-      </c>
-      <c r="N134" s="30">
+        <v>6.8475000000000001</v>
+      </c>
+      <c r="N134" s="20">
         <f>(H134*I134)*10%</f>
         <v>0.62250000000000005</v>
       </c>
@@ -7459,7 +7455,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="135" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C135" s="6">
         <v>133</v>
       </c>
@@ -7469,7 +7465,7 @@
       <c r="E135" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="F135" s="15">
+      <c r="F135" s="14">
         <v>25</v>
       </c>
       <c r="G135" s="7">
@@ -7482,15 +7478,15 @@
       <c r="I135" s="6">
         <v>3</v>
       </c>
-      <c r="J135" s="23"/>
+      <c r="J135" s="28"/>
       <c r="L135" s="13">
         <v>25</v>
       </c>
-      <c r="M135" s="14">
+      <c r="M135" s="19">
         <f t="shared" si="14"/>
-        <v>22.376249999999999</v>
-      </c>
-      <c r="N135" s="30">
+        <v>4.826249999999999</v>
+      </c>
+      <c r="N135" s="20">
         <f t="shared" ref="N135:N149" si="17">(H135*I135)*10%</f>
         <v>0.43874999999999997</v>
       </c>
@@ -7499,7 +7495,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="136" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C136" s="6">
         <v>134</v>
       </c>
@@ -7509,7 +7505,7 @@
       <c r="E136" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F136" s="15">
+      <c r="F136" s="14">
         <v>15</v>
       </c>
       <c r="G136" s="7">
@@ -7522,24 +7518,24 @@
       <c r="I136" s="6">
         <v>3</v>
       </c>
-      <c r="J136" s="23"/>
+      <c r="J136" s="28"/>
       <c r="L136" s="13">
         <v>15</v>
       </c>
-      <c r="M136" s="14">
+      <c r="M136" s="19">
         <f t="shared" si="14"/>
-        <v>24.99</v>
-      </c>
-      <c r="N136" s="30">
+        <v>5.3900000000000006</v>
+      </c>
+      <c r="N136" s="20">
         <f t="shared" si="17"/>
         <v>0.49000000000000005</v>
       </c>
       <c r="O136" s="13" t="str">
         <f t="shared" si="15"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="137" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="137" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C137" s="6">
         <v>135</v>
       </c>
@@ -7549,7 +7545,7 @@
       <c r="E137" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="F137" s="15">
+      <c r="F137" s="14">
         <v>56</v>
       </c>
       <c r="G137" s="7">
@@ -7562,15 +7558,15 @@
       <c r="I137" s="6">
         <v>3</v>
       </c>
-      <c r="J137" s="23"/>
+      <c r="J137" s="28"/>
       <c r="L137" s="13">
         <v>56</v>
       </c>
-      <c r="M137" s="14">
+      <c r="M137" s="19">
         <f t="shared" si="14"/>
-        <v>29.26125</v>
-      </c>
-      <c r="N137" s="30">
+        <v>6.3112500000000011</v>
+      </c>
+      <c r="N137" s="20">
         <f t="shared" si="17"/>
         <v>0.57375000000000009</v>
       </c>
@@ -7579,7 +7575,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="138" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C138" s="6">
         <v>136</v>
       </c>
@@ -7589,7 +7585,7 @@
       <c r="E138" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="F138" s="15">
+      <c r="F138" s="14">
         <v>76</v>
       </c>
       <c r="G138" s="7">
@@ -7602,15 +7598,15 @@
       <c r="I138" s="6">
         <v>3</v>
       </c>
-      <c r="J138" s="23"/>
+      <c r="J138" s="28"/>
       <c r="L138" s="13">
         <v>76</v>
       </c>
-      <c r="M138" s="14">
+      <c r="M138" s="19">
         <f t="shared" si="14"/>
-        <v>27.922499999999999</v>
-      </c>
-      <c r="N138" s="30">
+        <v>6.0225</v>
+      </c>
+      <c r="N138" s="20">
         <f t="shared" si="17"/>
         <v>0.54749999999999999</v>
       </c>
@@ -7619,7 +7615,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="139" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C139" s="6">
         <v>137</v>
       </c>
@@ -7629,7 +7625,7 @@
       <c r="E139" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="F139" s="15">
+      <c r="F139" s="14">
         <v>7</v>
       </c>
       <c r="G139" s="7">
@@ -7642,24 +7638,24 @@
       <c r="I139" s="6">
         <v>3</v>
       </c>
-      <c r="J139" s="23"/>
+      <c r="J139" s="28"/>
       <c r="L139" s="13">
         <v>7</v>
       </c>
-      <c r="M139" s="14">
+      <c r="M139" s="19">
         <f t="shared" si="14"/>
-        <v>24.352499999999999</v>
-      </c>
-      <c r="N139" s="30">
+        <v>5.2524999999999995</v>
+      </c>
+      <c r="N139" s="20">
         <f t="shared" si="17"/>
         <v>0.47749999999999998</v>
       </c>
       <c r="O139" s="13" t="str">
         <f t="shared" si="15"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="140" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="140" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C140" s="6">
         <v>138</v>
       </c>
@@ -7669,7 +7665,7 @@
       <c r="E140" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="F140" s="15">
+      <c r="F140" s="14">
         <v>58</v>
       </c>
       <c r="G140" s="7">
@@ -7682,15 +7678,15 @@
       <c r="I140" s="6">
         <v>3</v>
       </c>
-      <c r="J140" s="23"/>
+      <c r="J140" s="28"/>
       <c r="L140" s="13">
         <v>58</v>
       </c>
-      <c r="M140" s="14">
+      <c r="M140" s="19">
         <f t="shared" si="14"/>
-        <v>31.173749999999998</v>
-      </c>
-      <c r="N140" s="30">
+        <v>6.7237500000000008</v>
+      </c>
+      <c r="N140" s="20">
         <f t="shared" si="17"/>
         <v>0.61125000000000007</v>
       </c>
@@ -7699,7 +7695,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="141" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C141" s="6">
         <v>139</v>
       </c>
@@ -7709,7 +7705,7 @@
       <c r="E141" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F141" s="15">
+      <c r="F141" s="14">
         <v>20</v>
       </c>
       <c r="G141" s="7">
@@ -7722,24 +7718,24 @@
       <c r="I141" s="6">
         <v>3</v>
       </c>
-      <c r="J141" s="23"/>
+      <c r="J141" s="28"/>
       <c r="L141" s="13">
         <v>20</v>
       </c>
-      <c r="M141" s="14">
+      <c r="M141" s="19">
         <f t="shared" si="14"/>
-        <v>27.54</v>
-      </c>
-      <c r="N141" s="30">
+        <v>5.94</v>
+      </c>
+      <c r="N141" s="20">
         <f t="shared" si="17"/>
         <v>0.54</v>
       </c>
       <c r="O141" s="13" t="str">
         <f t="shared" si="15"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="142" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="142" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C142" s="6">
         <v>140</v>
       </c>
@@ -7749,7 +7745,7 @@
       <c r="E142" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="F142" s="15">
+      <c r="F142" s="14">
         <v>40</v>
       </c>
       <c r="G142" s="7">
@@ -7762,15 +7758,15 @@
       <c r="I142" s="6">
         <v>3</v>
       </c>
-      <c r="J142" s="23"/>
+      <c r="J142" s="28"/>
       <c r="L142" s="13">
         <v>40</v>
       </c>
-      <c r="M142" s="14">
+      <c r="M142" s="19">
         <f t="shared" si="14"/>
-        <v>30.6</v>
-      </c>
-      <c r="N142" s="30">
+        <v>6.6</v>
+      </c>
+      <c r="N142" s="20">
         <f t="shared" si="17"/>
         <v>0.60000000000000009</v>
       </c>
@@ -7779,7 +7775,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="143" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C143" s="6">
         <v>141</v>
       </c>
@@ -7789,7 +7785,7 @@
       <c r="E143" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="F143" s="15">
+      <c r="F143" s="14">
         <v>26</v>
       </c>
       <c r="G143" s="7">
@@ -7802,24 +7798,24 @@
       <c r="I143" s="6">
         <v>3</v>
       </c>
-      <c r="J143" s="23"/>
+      <c r="J143" s="28"/>
       <c r="L143" s="13">
         <v>26</v>
       </c>
-      <c r="M143" s="14">
+      <c r="M143" s="19">
         <f t="shared" si="14"/>
-        <v>27.54</v>
-      </c>
-      <c r="N143" s="30">
+        <v>5.94</v>
+      </c>
+      <c r="N143" s="20">
         <f t="shared" si="17"/>
         <v>0.54</v>
       </c>
       <c r="O143" s="13" t="str">
         <f t="shared" si="15"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="144" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="144" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C144" s="6">
         <v>142</v>
       </c>
@@ -7829,7 +7825,7 @@
       <c r="E144" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="F144" s="15">
+      <c r="F144" s="14">
         <v>24</v>
       </c>
       <c r="G144" s="7">
@@ -7842,24 +7838,24 @@
       <c r="I144" s="6">
         <v>3</v>
       </c>
-      <c r="J144" s="23"/>
+      <c r="J144" s="28"/>
       <c r="L144" s="13">
         <v>24</v>
       </c>
-      <c r="M144" s="14">
+      <c r="M144" s="19">
         <f t="shared" si="14"/>
-        <v>28.432500000000001</v>
-      </c>
-      <c r="N144" s="30">
+        <v>6.1324999999999994</v>
+      </c>
+      <c r="N144" s="20">
         <f t="shared" si="17"/>
         <v>0.5575</v>
       </c>
       <c r="O144" s="13" t="str">
         <f t="shared" si="15"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="145" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="145" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C145" s="6">
         <v>143</v>
       </c>
@@ -7869,7 +7865,7 @@
       <c r="E145" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="F145" s="15">
+      <c r="F145" s="14">
         <v>52</v>
       </c>
       <c r="G145" s="7">
@@ -7882,15 +7878,15 @@
       <c r="I145" s="6">
         <v>3</v>
       </c>
-      <c r="J145" s="23"/>
+      <c r="J145" s="28"/>
       <c r="L145" s="13">
         <v>52</v>
       </c>
-      <c r="M145" s="14">
+      <c r="M145" s="19">
         <f t="shared" si="14"/>
-        <v>26.838750000000001</v>
-      </c>
-      <c r="N145" s="30">
+        <v>5.7887500000000012</v>
+      </c>
+      <c r="N145" s="20">
         <f t="shared" si="17"/>
         <v>0.52625000000000011</v>
       </c>
@@ -7899,7 +7895,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="146" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C146" s="6">
         <v>144</v>
       </c>
@@ -7909,7 +7905,7 @@
       <c r="E146" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="F146" s="15">
+      <c r="F146" s="14">
         <v>72</v>
       </c>
       <c r="G146" s="7">
@@ -7922,15 +7918,15 @@
       <c r="I146" s="6">
         <v>3</v>
       </c>
-      <c r="J146" s="23"/>
+      <c r="J146" s="28"/>
       <c r="L146" s="13">
         <v>72</v>
       </c>
-      <c r="M146" s="14">
+      <c r="M146" s="19">
         <f t="shared" si="14"/>
-        <v>24.28875</v>
-      </c>
-      <c r="N146" s="30">
+        <v>5.2387499999999996</v>
+      </c>
+      <c r="N146" s="20">
         <f t="shared" si="17"/>
         <v>0.47624999999999995</v>
       </c>
@@ -7939,7 +7935,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="147" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C147" s="6">
         <v>145</v>
       </c>
@@ -7949,7 +7945,7 @@
       <c r="E147" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="F147" s="15">
+      <c r="F147" s="14">
         <v>38</v>
       </c>
       <c r="G147" s="7">
@@ -7962,15 +7958,15 @@
       <c r="I147" s="6">
         <v>3</v>
       </c>
-      <c r="J147" s="23"/>
+      <c r="J147" s="28"/>
       <c r="L147" s="13">
         <v>38</v>
       </c>
-      <c r="M147" s="14">
+      <c r="M147" s="19">
         <f t="shared" si="14"/>
-        <v>28.05</v>
-      </c>
-      <c r="N147" s="30">
+        <v>6.05</v>
+      </c>
+      <c r="N147" s="20">
         <f t="shared" si="17"/>
         <v>0.55000000000000004</v>
       </c>
@@ -7979,7 +7975,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="148" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C148" s="6">
         <v>146</v>
       </c>
@@ -7989,7 +7985,7 @@
       <c r="E148" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="F148" s="15">
+      <c r="F148" s="14">
         <v>38</v>
       </c>
       <c r="G148" s="7">
@@ -8002,15 +7998,15 @@
       <c r="I148" s="6">
         <v>3</v>
       </c>
-      <c r="J148" s="23"/>
+      <c r="J148" s="28"/>
       <c r="L148" s="13">
         <v>38</v>
       </c>
-      <c r="M148" s="14">
+      <c r="M148" s="19">
         <f t="shared" si="14"/>
-        <v>24.225000000000001</v>
-      </c>
-      <c r="N148" s="30">
+        <v>5.2249999999999996</v>
+      </c>
+      <c r="N148" s="20">
         <f>(H148*I148)*10%</f>
         <v>0.47500000000000003</v>
       </c>
@@ -8019,7 +8015,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="149" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C149" s="6">
         <v>147</v>
       </c>
@@ -8029,7 +8025,7 @@
       <c r="E149" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="F149" s="15">
+      <c r="F149" s="14">
         <v>8</v>
       </c>
       <c r="G149" s="7">
@@ -8042,24 +8038,24 @@
       <c r="I149" s="6">
         <v>3</v>
       </c>
-      <c r="J149" s="23"/>
+      <c r="J149" s="28"/>
       <c r="L149" s="13">
         <v>8</v>
       </c>
-      <c r="M149" s="14">
+      <c r="M149" s="19">
         <f t="shared" si="14"/>
-        <v>26.328749999999999</v>
-      </c>
-      <c r="N149" s="30">
+        <v>5.67875</v>
+      </c>
+      <c r="N149" s="20">
         <f t="shared" si="17"/>
         <v>0.51624999999999999</v>
       </c>
       <c r="O149" s="13" t="str">
         <f t="shared" si="15"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="150" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="150" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C150" s="6">
         <v>148</v>
       </c>
@@ -8069,7 +8065,7 @@
       <c r="E150" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F150" s="15">
+      <c r="F150" s="14">
         <v>68</v>
       </c>
       <c r="G150" s="7">
@@ -8082,15 +8078,15 @@
       <c r="I150" s="6">
         <v>3</v>
       </c>
-      <c r="J150" s="23"/>
+      <c r="J150" s="28"/>
       <c r="L150" s="13">
         <v>68</v>
       </c>
-      <c r="M150" s="14">
+      <c r="M150" s="19">
         <f t="shared" si="14"/>
-        <v>28.11375</v>
-      </c>
-      <c r="N150" s="30">
+        <v>6.0637499999999989</v>
+      </c>
+      <c r="N150" s="20">
         <f>(H150*I150)*10%</f>
         <v>0.55124999999999991</v>
       </c>
@@ -8099,7 +8095,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="151" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C151" s="6">
         <v>149</v>
       </c>
@@ -8109,7 +8105,7 @@
       <c r="E151" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F151" s="15">
+      <c r="F151" s="14">
         <v>6</v>
       </c>
       <c r="G151" s="7">
@@ -8122,15 +8118,15 @@
       <c r="I151" s="6">
         <v>3</v>
       </c>
-      <c r="J151" s="23"/>
+      <c r="J151" s="28"/>
       <c r="L151" s="13">
         <v>6</v>
       </c>
-      <c r="M151" s="14">
+      <c r="M151" s="19">
         <f t="shared" si="14"/>
-        <v>31.30125</v>
-      </c>
-      <c r="N151" s="30">
+        <v>6.7512500000000006</v>
+      </c>
+      <c r="N151" s="20">
         <f t="shared" ref="N151:N162" si="18">(H151*I151)*10%</f>
         <v>0.61375000000000002</v>
       </c>
@@ -8139,7 +8135,7 @@
         <v>Warning ! Material harus segera dibeli</v>
       </c>
     </row>
-    <row r="152" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C152" s="6">
         <v>150</v>
       </c>
@@ -8149,7 +8145,7 @@
       <c r="E152" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="F152" s="15">
+      <c r="F152" s="14">
         <v>12</v>
       </c>
       <c r="G152" s="7">
@@ -8162,24 +8158,24 @@
       <c r="I152" s="6">
         <v>3</v>
       </c>
-      <c r="J152" s="23"/>
+      <c r="J152" s="28"/>
       <c r="L152" s="13">
         <v>12</v>
       </c>
-      <c r="M152" s="14">
+      <c r="M152" s="19">
         <f t="shared" si="14"/>
-        <v>27.348749999999999</v>
-      </c>
-      <c r="N152" s="30">
+        <v>5.8987500000000006</v>
+      </c>
+      <c r="N152" s="20">
         <f t="shared" si="18"/>
         <v>0.53625000000000012</v>
       </c>
       <c r="O152" s="13" t="str">
         <f t="shared" si="15"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="153" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="153" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C153" s="6">
         <v>151</v>
       </c>
@@ -8189,7 +8185,7 @@
       <c r="E153" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="F153" s="15">
+      <c r="F153" s="14">
         <v>58</v>
       </c>
       <c r="G153" s="7">
@@ -8202,15 +8198,15 @@
       <c r="I153" s="6">
         <v>3</v>
       </c>
-      <c r="J153" s="23"/>
+      <c r="J153" s="28"/>
       <c r="L153" s="13">
         <v>58</v>
       </c>
-      <c r="M153" s="14">
+      <c r="M153" s="19">
         <f t="shared" si="14"/>
-        <v>25.8825</v>
-      </c>
-      <c r="N153" s="30">
+        <v>5.5825000000000014</v>
+      </c>
+      <c r="N153" s="20">
         <f t="shared" si="18"/>
         <v>0.50750000000000017</v>
       </c>
@@ -8219,7 +8215,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="154" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C154" s="6">
         <v>152</v>
       </c>
@@ -8229,7 +8225,7 @@
       <c r="E154" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F154" s="15">
+      <c r="F154" s="14">
         <v>57</v>
       </c>
       <c r="G154" s="7">
@@ -8242,15 +8238,15 @@
       <c r="I154" s="6">
         <v>3</v>
       </c>
-      <c r="J154" s="23"/>
+      <c r="J154" s="28"/>
       <c r="L154" s="13">
         <v>57</v>
       </c>
-      <c r="M154" s="14">
+      <c r="M154" s="19">
         <f t="shared" si="14"/>
-        <v>22.50375</v>
-      </c>
-      <c r="N154" s="30">
+        <v>4.8537500000000007</v>
+      </c>
+      <c r="N154" s="20">
         <f t="shared" si="18"/>
         <v>0.44125000000000009</v>
       </c>
@@ -8259,7 +8255,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="155" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C155" s="6">
         <v>153</v>
       </c>
@@ -8269,7 +8265,7 @@
       <c r="E155" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F155" s="15">
+      <c r="F155" s="14">
         <v>2</v>
       </c>
       <c r="G155" s="7">
@@ -8282,15 +8278,15 @@
       <c r="I155" s="6">
         <v>3</v>
       </c>
-      <c r="J155" s="23"/>
+      <c r="J155" s="28"/>
       <c r="L155" s="13">
         <v>2</v>
       </c>
-      <c r="M155" s="14">
+      <c r="M155" s="19">
         <f t="shared" si="14"/>
-        <v>27.603750000000002</v>
-      </c>
-      <c r="N155" s="30">
+        <v>5.9537499999999994</v>
+      </c>
+      <c r="N155" s="20">
         <f t="shared" si="18"/>
         <v>0.54125000000000001</v>
       </c>
@@ -8299,7 +8295,7 @@
         <v>Warning ! Material harus segera dibeli</v>
       </c>
     </row>
-    <row r="156" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C156" s="6">
         <v>154</v>
       </c>
@@ -8309,7 +8305,7 @@
       <c r="E156" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="F156" s="15">
+      <c r="F156" s="14">
         <v>64</v>
       </c>
       <c r="G156" s="7">
@@ -8322,15 +8318,15 @@
       <c r="I156" s="6">
         <v>3</v>
       </c>
-      <c r="J156" s="23"/>
+      <c r="J156" s="28"/>
       <c r="L156" s="13">
         <v>64</v>
       </c>
-      <c r="M156" s="14">
+      <c r="M156" s="19">
         <f t="shared" si="14"/>
-        <v>22.3125</v>
-      </c>
-      <c r="N156" s="30">
+        <v>4.8125</v>
+      </c>
+      <c r="N156" s="20">
         <f t="shared" si="18"/>
         <v>0.4375</v>
       </c>
@@ -8339,7 +8335,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="157" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C157" s="6">
         <v>155</v>
       </c>
@@ -8349,7 +8345,7 @@
       <c r="E157" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="F157" s="15">
+      <c r="F157" s="14">
         <v>72</v>
       </c>
       <c r="G157" s="7">
@@ -8362,15 +8358,15 @@
       <c r="I157" s="6">
         <v>3</v>
       </c>
-      <c r="J157" s="23"/>
+      <c r="J157" s="28"/>
       <c r="L157" s="13">
         <v>72</v>
       </c>
-      <c r="M157" s="14">
+      <c r="M157" s="19">
         <f t="shared" si="14"/>
-        <v>22.631250000000001</v>
-      </c>
-      <c r="N157" s="30">
+        <v>4.8812499999999996</v>
+      </c>
+      <c r="N157" s="20">
         <f t="shared" si="18"/>
         <v>0.44375000000000003</v>
       </c>
@@ -8379,7 +8375,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="158" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C158" s="6">
         <v>156</v>
       </c>
@@ -8389,7 +8385,7 @@
       <c r="E158" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F158" s="15">
+      <c r="F158" s="14">
         <v>16</v>
       </c>
       <c r="G158" s="7">
@@ -8402,24 +8398,24 @@
       <c r="I158" s="6">
         <v>3</v>
       </c>
-      <c r="J158" s="23"/>
+      <c r="J158" s="28"/>
       <c r="L158" s="13">
         <v>16</v>
       </c>
-      <c r="M158" s="14">
+      <c r="M158" s="19">
         <f t="shared" si="14"/>
-        <v>23.3325</v>
-      </c>
-      <c r="N158" s="30">
+        <v>5.0324999999999989</v>
+      </c>
+      <c r="N158" s="20">
         <f t="shared" si="18"/>
         <v>0.45749999999999996</v>
       </c>
       <c r="O158" s="13" t="str">
         <f t="shared" si="15"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="159" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="159" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C159" s="6">
         <v>157</v>
       </c>
@@ -8429,7 +8425,7 @@
       <c r="E159" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="F159" s="15">
+      <c r="F159" s="14">
         <v>41</v>
       </c>
       <c r="G159" s="7">
@@ -8442,15 +8438,15 @@
       <c r="I159" s="6">
         <v>3</v>
       </c>
-      <c r="J159" s="23"/>
+      <c r="J159" s="28"/>
       <c r="L159" s="13">
         <v>41</v>
       </c>
-      <c r="M159" s="14">
+      <c r="M159" s="19">
         <f t="shared" si="14"/>
-        <v>29.89875</v>
-      </c>
-      <c r="N159" s="30">
+        <v>6.4487500000000004</v>
+      </c>
+      <c r="N159" s="20">
         <f t="shared" si="18"/>
         <v>0.58625000000000005</v>
       </c>
@@ -8459,7 +8455,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="160" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C160" s="6">
         <v>158</v>
       </c>
@@ -8469,7 +8465,7 @@
       <c r="E160" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="F160" s="15">
+      <c r="F160" s="14">
         <v>79</v>
       </c>
       <c r="G160" s="7">
@@ -8482,15 +8478,15 @@
       <c r="I160" s="6">
         <v>3</v>
       </c>
-      <c r="J160" s="23"/>
+      <c r="J160" s="28"/>
       <c r="L160" s="13">
         <v>79</v>
       </c>
-      <c r="M160" s="14">
+      <c r="M160" s="19">
         <f t="shared" si="14"/>
-        <v>29.58</v>
-      </c>
-      <c r="N160" s="30">
+        <v>6.379999999999999</v>
+      </c>
+      <c r="N160" s="20">
         <f t="shared" si="18"/>
         <v>0.57999999999999996</v>
       </c>
@@ -8499,7 +8495,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="161" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C161" s="6">
         <v>159</v>
       </c>
@@ -8509,7 +8505,7 @@
       <c r="E161" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F161" s="15">
+      <c r="F161" s="14">
         <v>15</v>
       </c>
       <c r="G161" s="7">
@@ -8522,24 +8518,24 @@
       <c r="I161" s="6">
         <v>3</v>
       </c>
-      <c r="J161" s="23"/>
+      <c r="J161" s="28"/>
       <c r="L161" s="13">
         <v>15</v>
       </c>
-      <c r="M161" s="14">
+      <c r="M161" s="19">
         <f t="shared" si="14"/>
-        <v>22.822500000000002</v>
-      </c>
-      <c r="N161" s="30">
+        <v>4.9224999999999994</v>
+      </c>
+      <c r="N161" s="20">
         <f t="shared" si="18"/>
         <v>0.44750000000000001</v>
       </c>
       <c r="O161" s="13" t="str">
         <f t="shared" si="15"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="162" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="162" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C162" s="6">
         <v>160</v>
       </c>
@@ -8549,7 +8545,7 @@
       <c r="E162" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="F162" s="15">
+      <c r="F162" s="14">
         <v>23</v>
       </c>
       <c r="G162" s="7">
@@ -8562,24 +8558,24 @@
       <c r="I162" s="6">
         <v>3</v>
       </c>
-      <c r="J162" s="23"/>
+      <c r="J162" s="28"/>
       <c r="L162" s="13">
         <v>23</v>
       </c>
-      <c r="M162" s="14">
+      <c r="M162" s="19">
         <f t="shared" si="14"/>
-        <v>28.49625</v>
-      </c>
-      <c r="N162" s="30">
+        <v>6.1462500000000002</v>
+      </c>
+      <c r="N162" s="20">
         <f t="shared" si="18"/>
         <v>0.55875000000000008</v>
       </c>
       <c r="O162" s="13" t="str">
         <f t="shared" si="15"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="163" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="163" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C163" s="6">
         <v>161</v>
       </c>
@@ -8589,7 +8585,7 @@
       <c r="E163" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="F163" s="15">
+      <c r="F163" s="14">
         <v>31</v>
       </c>
       <c r="G163" s="7">
@@ -8602,15 +8598,15 @@
       <c r="I163" s="6">
         <v>3</v>
       </c>
-      <c r="J163" s="23"/>
+      <c r="J163" s="28"/>
       <c r="L163" s="13">
         <v>31</v>
       </c>
-      <c r="M163" s="14">
+      <c r="M163" s="19">
         <f t="shared" si="14"/>
-        <v>27.348749999999999</v>
-      </c>
-      <c r="N163" s="30">
+        <v>5.8987500000000006</v>
+      </c>
+      <c r="N163" s="20">
         <f>(H163*I163)*10%</f>
         <v>0.53625000000000012</v>
       </c>
@@ -8619,7 +8615,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="164" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C164" s="6">
         <v>162</v>
       </c>
@@ -8629,7 +8625,7 @@
       <c r="E164" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="F164" s="15">
+      <c r="F164" s="14">
         <v>21</v>
       </c>
       <c r="G164" s="7">
@@ -8642,24 +8638,24 @@
       <c r="I164" s="6">
         <v>3</v>
       </c>
-      <c r="J164" s="23"/>
-      <c r="L164" s="15">
+      <c r="J164" s="28"/>
+      <c r="L164" s="14">
         <v>21</v>
       </c>
-      <c r="M164" s="14">
+      <c r="M164" s="19">
         <f t="shared" si="14"/>
-        <v>22.95</v>
-      </c>
-      <c r="N164" s="30">
+        <v>4.95</v>
+      </c>
+      <c r="N164" s="20">
         <f t="shared" ref="N164:N227" si="19">(H164*I164)*10%</f>
         <v>0.45</v>
       </c>
       <c r="O164" s="13" t="str">
         <f t="shared" si="15"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="165" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="165" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C165" s="6">
         <v>163</v>
       </c>
@@ -8669,7 +8665,7 @@
       <c r="E165" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="F165" s="15">
+      <c r="F165" s="14">
         <v>56</v>
       </c>
       <c r="G165" s="7">
@@ -8682,15 +8678,15 @@
       <c r="I165" s="6">
         <v>3</v>
       </c>
-      <c r="J165" s="23"/>
+      <c r="J165" s="28"/>
       <c r="L165" s="13">
         <v>56</v>
       </c>
-      <c r="M165" s="14">
+      <c r="M165" s="19">
         <f t="shared" si="14"/>
-        <v>23.842500000000001</v>
-      </c>
-      <c r="N165" s="30">
+        <v>5.1425000000000001</v>
+      </c>
+      <c r="N165" s="20">
         <f t="shared" si="19"/>
         <v>0.46750000000000003</v>
       </c>
@@ -8699,7 +8695,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="166" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C166" s="6">
         <v>164</v>
       </c>
@@ -8709,7 +8705,7 @@
       <c r="E166" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="F166" s="15">
+      <c r="F166" s="14">
         <v>43</v>
       </c>
       <c r="G166" s="7">
@@ -8722,15 +8718,15 @@
       <c r="I166" s="6">
         <v>3</v>
       </c>
-      <c r="J166" s="23"/>
+      <c r="J166" s="28"/>
       <c r="L166" s="13">
         <v>43</v>
       </c>
-      <c r="M166" s="14">
+      <c r="M166" s="19">
         <f t="shared" si="14"/>
-        <v>28.11375</v>
-      </c>
-      <c r="N166" s="30">
+        <v>6.0637499999999989</v>
+      </c>
+      <c r="N166" s="20">
         <f t="shared" si="19"/>
         <v>0.55124999999999991</v>
       </c>
@@ -8739,7 +8735,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="167" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C167" s="6">
         <v>165</v>
       </c>
@@ -8749,7 +8745,7 @@
       <c r="E167" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="F167" s="15">
+      <c r="F167" s="14">
         <v>0</v>
       </c>
       <c r="G167" s="7">
@@ -8762,15 +8758,15 @@
       <c r="I167" s="6">
         <v>3</v>
       </c>
-      <c r="J167" s="23"/>
+      <c r="J167" s="28"/>
       <c r="L167" s="13">
         <v>0</v>
       </c>
-      <c r="M167" s="14">
+      <c r="M167" s="19">
         <f t="shared" si="14"/>
-        <v>30.727499999999999</v>
-      </c>
-      <c r="N167" s="30">
+        <v>6.6275000000000004</v>
+      </c>
+      <c r="N167" s="20">
         <f t="shared" si="19"/>
         <v>0.60250000000000004</v>
       </c>
@@ -8779,7 +8775,7 @@
         <v>Warning ! Material harus segera dibeli</v>
       </c>
     </row>
-    <row r="168" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C168" s="6">
         <v>166</v>
       </c>
@@ -8789,7 +8785,7 @@
       <c r="E168" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="F168" s="15">
+      <c r="F168" s="14">
         <v>67</v>
       </c>
       <c r="G168" s="7">
@@ -8802,15 +8798,15 @@
       <c r="I168" s="6">
         <v>3</v>
       </c>
-      <c r="J168" s="23"/>
+      <c r="J168" s="28"/>
       <c r="L168" s="13">
         <v>67</v>
       </c>
-      <c r="M168" s="14">
+      <c r="M168" s="19">
         <f t="shared" si="14"/>
-        <v>31.556249999999999</v>
-      </c>
-      <c r="N168" s="30">
+        <v>6.8062500000000004</v>
+      </c>
+      <c r="N168" s="20">
         <f t="shared" si="19"/>
         <v>0.61875000000000002</v>
       </c>
@@ -8819,7 +8815,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="169" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C169" s="6">
         <v>167</v>
       </c>
@@ -8829,7 +8825,7 @@
       <c r="E169" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F169" s="15">
+      <c r="F169" s="14">
         <v>45</v>
       </c>
       <c r="G169" s="7">
@@ -8842,15 +8838,15 @@
       <c r="I169" s="6">
         <v>3</v>
       </c>
-      <c r="J169" s="23"/>
+      <c r="J169" s="28"/>
       <c r="L169" s="13">
         <v>45</v>
       </c>
-      <c r="M169" s="14">
+      <c r="M169" s="19">
         <f t="shared" si="14"/>
-        <v>22.695</v>
-      </c>
-      <c r="N169" s="30">
+        <v>4.8950000000000005</v>
+      </c>
+      <c r="N169" s="20">
         <f t="shared" si="19"/>
         <v>0.44500000000000006</v>
       </c>
@@ -8859,7 +8855,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="170" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C170" s="6">
         <v>168</v>
       </c>
@@ -8869,7 +8865,7 @@
       <c r="E170" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F170" s="15">
+      <c r="F170" s="14">
         <v>3</v>
       </c>
       <c r="G170" s="7">
@@ -8882,15 +8878,15 @@
       <c r="I170" s="6">
         <v>3</v>
       </c>
-      <c r="J170" s="23"/>
+      <c r="J170" s="28"/>
       <c r="L170" s="13">
         <v>3</v>
       </c>
-      <c r="M170" s="14">
+      <c r="M170" s="19">
         <f t="shared" si="14"/>
-        <v>22.758749999999999</v>
-      </c>
-      <c r="N170" s="30">
+        <v>4.9087500000000004</v>
+      </c>
+      <c r="N170" s="20">
         <f t="shared" si="19"/>
         <v>0.44625000000000004</v>
       </c>
@@ -8899,7 +8895,7 @@
         <v>Warning ! Material harus segera dibeli</v>
       </c>
     </row>
-    <row r="171" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C171" s="6">
         <v>169</v>
       </c>
@@ -8909,7 +8905,7 @@
       <c r="E171" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="F171" s="15">
+      <c r="F171" s="14">
         <v>17</v>
       </c>
       <c r="G171" s="7">
@@ -8922,24 +8918,24 @@
       <c r="I171" s="6">
         <v>3</v>
       </c>
-      <c r="J171" s="23"/>
+      <c r="J171" s="28"/>
       <c r="L171" s="13">
         <v>17</v>
       </c>
-      <c r="M171" s="14">
+      <c r="M171" s="19">
         <f t="shared" si="14"/>
-        <v>24.607500000000002</v>
-      </c>
-      <c r="N171" s="30">
+        <v>5.3074999999999992</v>
+      </c>
+      <c r="N171" s="20">
         <f t="shared" si="19"/>
         <v>0.48249999999999993</v>
       </c>
       <c r="O171" s="13" t="str">
         <f t="shared" si="15"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="172" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="172" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C172" s="6">
         <v>170</v>
       </c>
@@ -8949,7 +8945,7 @@
       <c r="E172" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="F172" s="15">
+      <c r="F172" s="14">
         <v>1</v>
       </c>
       <c r="G172" s="7">
@@ -8962,15 +8958,15 @@
       <c r="I172" s="6">
         <v>3</v>
       </c>
-      <c r="J172" s="23"/>
+      <c r="J172" s="28"/>
       <c r="L172" s="13">
         <v>1</v>
       </c>
-      <c r="M172" s="14">
+      <c r="M172" s="19">
         <f t="shared" si="14"/>
-        <v>30.6</v>
-      </c>
-      <c r="N172" s="30">
+        <v>6.6</v>
+      </c>
+      <c r="N172" s="20">
         <f t="shared" si="19"/>
         <v>0.60000000000000009</v>
       </c>
@@ -8979,7 +8975,7 @@
         <v>Warning ! Material harus segera dibeli</v>
       </c>
     </row>
-    <row r="173" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C173" s="6">
         <v>171</v>
       </c>
@@ -8989,7 +8985,7 @@
       <c r="E173" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="F173" s="15">
+      <c r="F173" s="14">
         <v>32</v>
       </c>
       <c r="G173" s="7">
@@ -9002,15 +8998,15 @@
       <c r="I173" s="6">
         <v>3</v>
       </c>
-      <c r="J173" s="23"/>
+      <c r="J173" s="28"/>
       <c r="L173" s="13">
         <v>32</v>
       </c>
-      <c r="M173" s="14">
+      <c r="M173" s="19">
         <f t="shared" si="14"/>
-        <v>24.48</v>
-      </c>
-      <c r="N173" s="30">
+        <v>5.2800000000000011</v>
+      </c>
+      <c r="N173" s="20">
         <f t="shared" si="19"/>
         <v>0.48000000000000009</v>
       </c>
@@ -9019,7 +9015,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="174" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C174" s="6">
         <v>172</v>
       </c>
@@ -9029,7 +9025,7 @@
       <c r="E174" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="F174" s="15">
+      <c r="F174" s="14">
         <v>65</v>
       </c>
       <c r="G174" s="7">
@@ -9042,15 +9038,15 @@
       <c r="I174" s="6">
         <v>3</v>
       </c>
-      <c r="J174" s="23"/>
+      <c r="J174" s="28"/>
       <c r="L174" s="13">
         <v>65</v>
       </c>
-      <c r="M174" s="14">
+      <c r="M174" s="19">
         <f t="shared" si="14"/>
-        <v>31.875</v>
-      </c>
-      <c r="N174" s="30">
+        <v>6.8749999999999991</v>
+      </c>
+      <c r="N174" s="20">
         <f t="shared" si="19"/>
         <v>0.625</v>
       </c>
@@ -9059,7 +9055,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="175" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C175" s="6">
         <v>173</v>
       </c>
@@ -9069,7 +9065,7 @@
       <c r="E175" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="F175" s="15">
+      <c r="F175" s="14">
         <v>14</v>
       </c>
       <c r="G175" s="7">
@@ -9082,24 +9078,24 @@
       <c r="I175" s="6">
         <v>3</v>
       </c>
-      <c r="J175" s="23"/>
+      <c r="J175" s="28"/>
       <c r="L175" s="13">
         <v>14</v>
       </c>
-      <c r="M175" s="14">
+      <c r="M175" s="19">
         <f t="shared" si="14"/>
-        <v>27.54</v>
-      </c>
-      <c r="N175" s="30">
+        <v>5.94</v>
+      </c>
+      <c r="N175" s="20">
         <f t="shared" si="19"/>
         <v>0.54</v>
       </c>
       <c r="O175" s="13" t="str">
         <f t="shared" si="15"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="176" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="176" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C176" s="6">
         <v>174</v>
       </c>
@@ -9109,7 +9105,7 @@
       <c r="E176" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="F176" s="15">
+      <c r="F176" s="14">
         <v>60</v>
       </c>
       <c r="G176" s="7">
@@ -9122,15 +9118,15 @@
       <c r="I176" s="6">
         <v>3</v>
       </c>
-      <c r="J176" s="23"/>
+      <c r="J176" s="28"/>
       <c r="L176" s="13">
         <v>60</v>
       </c>
-      <c r="M176" s="14">
+      <c r="M176" s="19">
         <f t="shared" si="14"/>
-        <v>24.798749999999998</v>
-      </c>
-      <c r="N176" s="30">
+        <v>5.348749999999999</v>
+      </c>
+      <c r="N176" s="20">
         <f t="shared" si="19"/>
         <v>0.4862499999999999</v>
       </c>
@@ -9139,7 +9135,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="177" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C177" s="6">
         <v>175</v>
       </c>
@@ -9149,7 +9145,7 @@
       <c r="E177" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="F177" s="15">
+      <c r="F177" s="14">
         <v>20</v>
       </c>
       <c r="G177" s="7">
@@ -9162,24 +9158,24 @@
       <c r="I177" s="6">
         <v>3</v>
       </c>
-      <c r="J177" s="23"/>
+      <c r="J177" s="28"/>
       <c r="L177" s="13">
         <v>20</v>
       </c>
-      <c r="M177" s="14">
+      <c r="M177" s="19">
         <f t="shared" si="14"/>
-        <v>29.26125</v>
-      </c>
-      <c r="N177" s="30">
+        <v>6.3112500000000011</v>
+      </c>
+      <c r="N177" s="20">
         <f>(H177*I177)*10%</f>
         <v>0.57375000000000009</v>
       </c>
       <c r="O177" s="13" t="str">
         <f t="shared" si="15"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="178" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="178" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C178" s="6">
         <v>176</v>
       </c>
@@ -9189,7 +9185,7 @@
       <c r="E178" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="F178" s="15">
+      <c r="F178" s="14">
         <v>43</v>
       </c>
       <c r="G178" s="7">
@@ -9202,15 +9198,15 @@
       <c r="I178" s="6">
         <v>3</v>
       </c>
-      <c r="J178" s="23"/>
+      <c r="J178" s="28"/>
       <c r="L178" s="13">
         <v>43</v>
       </c>
-      <c r="M178" s="14">
+      <c r="M178" s="19">
         <f t="shared" si="14"/>
-        <v>22.631250000000001</v>
-      </c>
-      <c r="N178" s="30">
+        <v>4.8812499999999996</v>
+      </c>
+      <c r="N178" s="20">
         <f t="shared" si="19"/>
         <v>0.44375000000000003</v>
       </c>
@@ -9219,7 +9215,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="179" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C179" s="6">
         <v>177</v>
       </c>
@@ -9229,7 +9225,7 @@
       <c r="E179" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F179" s="15">
+      <c r="F179" s="14">
         <v>37</v>
       </c>
       <c r="G179" s="7">
@@ -9242,15 +9238,15 @@
       <c r="I179" s="6">
         <v>3</v>
       </c>
-      <c r="J179" s="23"/>
+      <c r="J179" s="28"/>
       <c r="L179" s="13">
         <v>37</v>
       </c>
-      <c r="M179" s="14">
+      <c r="M179" s="19">
         <f t="shared" si="14"/>
-        <v>25.69125</v>
-      </c>
-      <c r="N179" s="30">
+        <v>5.5412499999999998</v>
+      </c>
+      <c r="N179" s="20">
         <f t="shared" si="19"/>
         <v>0.50375000000000003</v>
       </c>
@@ -9259,7 +9255,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="180" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C180" s="6">
         <v>178</v>
       </c>
@@ -9269,7 +9265,7 @@
       <c r="E180" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="F180" s="15">
+      <c r="F180" s="14">
         <v>78</v>
       </c>
       <c r="G180" s="7">
@@ -9282,15 +9278,15 @@
       <c r="I180" s="6">
         <v>3</v>
       </c>
-      <c r="J180" s="23"/>
+      <c r="J180" s="28"/>
       <c r="L180" s="13">
         <v>78</v>
       </c>
-      <c r="M180" s="14">
+      <c r="M180" s="19">
         <f t="shared" si="14"/>
-        <v>25.053750000000001</v>
-      </c>
-      <c r="N180" s="30">
+        <v>5.4037499999999996</v>
+      </c>
+      <c r="N180" s="20">
         <f t="shared" si="19"/>
         <v>0.49124999999999996</v>
       </c>
@@ -9299,7 +9295,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="181" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C181" s="6">
         <v>179</v>
       </c>
@@ -9309,7 +9305,7 @@
       <c r="E181" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="F181" s="15">
+      <c r="F181" s="14">
         <v>66</v>
       </c>
       <c r="G181" s="7">
@@ -9322,15 +9318,15 @@
       <c r="I181" s="6">
         <v>3</v>
       </c>
-      <c r="J181" s="23"/>
+      <c r="J181" s="28"/>
       <c r="L181" s="13">
         <v>66</v>
       </c>
-      <c r="M181" s="14">
+      <c r="M181" s="19">
         <f t="shared" si="14"/>
-        <v>22.567499999999999</v>
-      </c>
-      <c r="N181" s="30">
+        <v>4.8675000000000006</v>
+      </c>
+      <c r="N181" s="20">
         <f t="shared" si="19"/>
         <v>0.44250000000000012</v>
       </c>
@@ -9339,7 +9335,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="182" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C182" s="6">
         <v>180</v>
       </c>
@@ -9349,7 +9345,7 @@
       <c r="E182" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="F182" s="15">
+      <c r="F182" s="14">
         <v>70</v>
       </c>
       <c r="G182" s="7">
@@ -9362,15 +9358,15 @@
       <c r="I182" s="6">
         <v>3</v>
       </c>
-      <c r="J182" s="23"/>
+      <c r="J182" s="28"/>
       <c r="L182" s="13">
         <v>70</v>
       </c>
-      <c r="M182" s="14">
+      <c r="M182" s="19">
         <f t="shared" si="14"/>
-        <v>28.56</v>
-      </c>
-      <c r="N182" s="30">
+        <v>6.1599999999999993</v>
+      </c>
+      <c r="N182" s="20">
         <f t="shared" si="19"/>
         <v>0.55999999999999994</v>
       </c>
@@ -9379,7 +9375,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="183" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C183" s="6">
         <v>181</v>
       </c>
@@ -9389,7 +9385,7 @@
       <c r="E183" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="F183" s="15">
+      <c r="F183" s="14">
         <v>45</v>
       </c>
       <c r="G183" s="7">
@@ -9402,15 +9398,15 @@
       <c r="I183" s="6">
         <v>3</v>
       </c>
-      <c r="J183" s="23"/>
+      <c r="J183" s="28"/>
       <c r="L183" s="13">
         <v>45</v>
       </c>
-      <c r="M183" s="14">
+      <c r="M183" s="19">
         <f t="shared" si="14"/>
-        <v>29.324999999999999</v>
-      </c>
-      <c r="N183" s="30">
+        <v>6.3250000000000002</v>
+      </c>
+      <c r="N183" s="20">
         <f t="shared" si="19"/>
         <v>0.57500000000000007</v>
       </c>
@@ -9419,7 +9415,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="184" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C184" s="6">
         <v>182</v>
       </c>
@@ -9429,7 +9425,7 @@
       <c r="E184" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="F184" s="15">
+      <c r="F184" s="14">
         <v>40</v>
       </c>
       <c r="G184" s="7">
@@ -9442,15 +9438,15 @@
       <c r="I184" s="6">
         <v>3</v>
       </c>
-      <c r="J184" s="23"/>
+      <c r="J184" s="28"/>
       <c r="L184" s="13">
         <v>40</v>
       </c>
-      <c r="M184" s="14">
+      <c r="M184" s="19">
         <f t="shared" si="14"/>
-        <v>26.137499999999999</v>
-      </c>
-      <c r="N184" s="30">
+        <v>5.6375000000000002</v>
+      </c>
+      <c r="N184" s="20">
         <f t="shared" si="19"/>
         <v>0.51250000000000007</v>
       </c>
@@ -9459,7 +9455,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="185" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C185" s="6">
         <v>183</v>
       </c>
@@ -9469,7 +9465,7 @@
       <c r="E185" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="F185" s="15">
+      <c r="F185" s="14">
         <v>47</v>
       </c>
       <c r="G185" s="7">
@@ -9482,15 +9478,15 @@
       <c r="I185" s="6">
         <v>3</v>
       </c>
-      <c r="J185" s="23"/>
-      <c r="L185" s="15">
+      <c r="J185" s="28"/>
+      <c r="L185" s="14">
         <v>47</v>
       </c>
-      <c r="M185" s="14">
+      <c r="M185" s="19">
         <f t="shared" si="14"/>
-        <v>24.671250000000001</v>
-      </c>
-      <c r="N185" s="30">
+        <v>5.32125</v>
+      </c>
+      <c r="N185" s="20">
         <f>(H185*I185)*10%</f>
         <v>0.48375000000000007</v>
       </c>
@@ -9499,7 +9495,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="186" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C186" s="6">
         <v>184</v>
       </c>
@@ -9509,7 +9505,7 @@
       <c r="E186" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="F186" s="15">
+      <c r="F186" s="14">
         <v>55</v>
       </c>
       <c r="G186" s="7">
@@ -9522,15 +9518,15 @@
       <c r="I186" s="6">
         <v>3</v>
       </c>
-      <c r="J186" s="23"/>
-      <c r="L186" s="15">
+      <c r="J186" s="28"/>
+      <c r="L186" s="14">
         <v>55</v>
       </c>
-      <c r="M186" s="14">
+      <c r="M186" s="19">
         <f t="shared" si="14"/>
-        <v>26.71125</v>
-      </c>
-      <c r="N186" s="30">
+        <v>5.7612499999999986</v>
+      </c>
+      <c r="N186" s="20">
         <f t="shared" si="19"/>
         <v>0.52374999999999994</v>
       </c>
@@ -9539,7 +9535,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="187" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C187" s="6">
         <v>185</v>
       </c>
@@ -9549,7 +9545,7 @@
       <c r="E187" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="F187" s="15">
+      <c r="F187" s="14">
         <v>3</v>
       </c>
       <c r="G187" s="7">
@@ -9562,15 +9558,15 @@
       <c r="I187" s="6">
         <v>3</v>
       </c>
-      <c r="J187" s="23"/>
-      <c r="L187" s="15">
-        <v>3</v>
-      </c>
-      <c r="M187" s="14">
+      <c r="J187" s="28"/>
+      <c r="L187" s="14">
+        <v>3</v>
+      </c>
+      <c r="M187" s="19">
         <f t="shared" si="14"/>
-        <v>26.137499999999999</v>
-      </c>
-      <c r="N187" s="30">
+        <v>5.6375000000000002</v>
+      </c>
+      <c r="N187" s="20">
         <f t="shared" si="19"/>
         <v>0.51250000000000007</v>
       </c>
@@ -9579,7 +9575,7 @@
         <v>Warning ! Material harus segera dibeli</v>
       </c>
     </row>
-    <row r="188" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C188" s="6">
         <v>186</v>
       </c>
@@ -9589,7 +9585,7 @@
       <c r="E188" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="F188" s="15">
+      <c r="F188" s="14">
         <v>66</v>
       </c>
       <c r="G188" s="7">
@@ -9602,15 +9598,15 @@
       <c r="I188" s="6">
         <v>3</v>
       </c>
-      <c r="J188" s="24"/>
-      <c r="L188" s="15">
+      <c r="J188" s="29"/>
+      <c r="L188" s="14">
         <v>66</v>
       </c>
-      <c r="M188" s="14">
+      <c r="M188" s="19">
         <f t="shared" si="14"/>
-        <v>28.942499999999999</v>
-      </c>
-      <c r="N188" s="30">
+        <v>6.2425000000000006</v>
+      </c>
+      <c r="N188" s="20">
         <f t="shared" si="19"/>
         <v>0.56750000000000012</v>
       </c>
@@ -9619,7 +9615,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="189" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C189" s="6">
         <v>187</v>
       </c>
@@ -9629,7 +9625,7 @@
       <c r="E189" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="F189" s="15">
+      <c r="F189" s="14">
         <v>57</v>
       </c>
       <c r="G189" s="7">
@@ -9642,17 +9638,17 @@
       <c r="I189" s="6">
         <v>5</v>
       </c>
-      <c r="J189" s="26" t="s">
+      <c r="J189" s="31" t="s">
         <v>371</v>
       </c>
       <c r="L189" s="13">
         <v>57</v>
       </c>
-      <c r="M189" s="14">
+      <c r="M189" s="19">
         <f t="shared" si="14"/>
-        <v>44.731250000000003</v>
-      </c>
-      <c r="N189" s="30">
+        <v>9.6479166666666671</v>
+      </c>
+      <c r="N189" s="20">
         <f t="shared" si="19"/>
         <v>0.87708333333333344</v>
       </c>
@@ -9661,7 +9657,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="190" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C190" s="6">
         <v>188</v>
       </c>
@@ -9671,7 +9667,7 @@
       <c r="E190" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F190" s="15">
+      <c r="F190" s="14">
         <v>16</v>
       </c>
       <c r="G190" s="7">
@@ -9684,24 +9680,24 @@
       <c r="I190" s="6">
         <v>5</v>
       </c>
-      <c r="J190" s="26"/>
+      <c r="J190" s="31"/>
       <c r="L190" s="13">
         <v>16</v>
       </c>
-      <c r="M190" s="14">
+      <c r="M190" s="19">
         <f t="shared" si="14"/>
-        <v>38.25</v>
-      </c>
-      <c r="N190" s="30">
+        <v>8.25</v>
+      </c>
+      <c r="N190" s="20">
         <f t="shared" si="19"/>
         <v>0.75</v>
       </c>
       <c r="O190" s="13" t="str">
         <f t="shared" si="15"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="191" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="191" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C191" s="6">
         <v>189</v>
       </c>
@@ -9711,7 +9707,7 @@
       <c r="E191" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="F191" s="15">
+      <c r="F191" s="14">
         <v>63</v>
       </c>
       <c r="G191" s="7">
@@ -9724,15 +9720,15 @@
       <c r="I191" s="6">
         <v>5</v>
       </c>
-      <c r="J191" s="26"/>
+      <c r="J191" s="31"/>
       <c r="L191" s="13">
         <v>63</v>
       </c>
-      <c r="M191" s="14">
+      <c r="M191" s="19">
         <f t="shared" si="14"/>
-        <v>51.318750000000001</v>
-      </c>
-      <c r="N191" s="30">
+        <v>11.06875</v>
+      </c>
+      <c r="N191" s="20">
         <f t="shared" si="19"/>
         <v>1.0062500000000001</v>
       </c>
@@ -9741,7 +9737,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="192" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C192" s="6">
         <v>190</v>
       </c>
@@ -9751,7 +9747,7 @@
       <c r="E192" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="F192" s="15">
+      <c r="F192" s="14">
         <v>18</v>
       </c>
       <c r="G192" s="7">
@@ -9764,24 +9760,24 @@
       <c r="I192" s="6">
         <v>5</v>
       </c>
-      <c r="J192" s="26"/>
+      <c r="J192" s="31"/>
       <c r="L192" s="13">
         <v>18</v>
       </c>
-      <c r="M192" s="14">
+      <c r="M192" s="19">
         <f t="shared" si="14"/>
-        <v>38.887500000000003</v>
-      </c>
-      <c r="N192" s="30">
+        <v>8.3874999999999993</v>
+      </c>
+      <c r="N192" s="20">
         <f t="shared" si="19"/>
         <v>0.76250000000000007</v>
       </c>
       <c r="O192" s="13" t="str">
         <f t="shared" si="15"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="193" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="193" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C193" s="6">
         <v>191</v>
       </c>
@@ -9791,7 +9787,7 @@
       <c r="E193" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F193" s="15">
+      <c r="F193" s="14">
         <v>3</v>
       </c>
       <c r="G193" s="7">
@@ -9804,15 +9800,15 @@
       <c r="I193" s="6">
         <v>5</v>
       </c>
-      <c r="J193" s="26"/>
+      <c r="J193" s="31"/>
       <c r="L193" s="13">
         <v>3</v>
       </c>
-      <c r="M193" s="14">
+      <c r="M193" s="19">
         <f t="shared" si="14"/>
-        <v>41.862500000000004</v>
-      </c>
-      <c r="N193" s="30">
+        <v>9.0291666666666668</v>
+      </c>
+      <c r="N193" s="20">
         <f t="shared" si="19"/>
         <v>0.82083333333333341</v>
       </c>
@@ -9821,7 +9817,7 @@
         <v>Warning ! Material harus segera dibeli</v>
       </c>
     </row>
-    <row r="194" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C194" s="6">
         <v>192</v>
       </c>
@@ -9831,7 +9827,7 @@
       <c r="E194" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="F194" s="15">
+      <c r="F194" s="14">
         <v>56</v>
       </c>
       <c r="G194" s="7">
@@ -9844,15 +9840,15 @@
       <c r="I194" s="6">
         <v>5</v>
       </c>
-      <c r="J194" s="26"/>
+      <c r="J194" s="31"/>
       <c r="L194" s="13">
         <v>56</v>
       </c>
-      <c r="M194" s="14">
+      <c r="M194" s="19">
         <f t="shared" si="14"/>
-        <v>46.856250000000003</v>
-      </c>
-      <c r="N194" s="30">
+        <v>10.106249999999999</v>
+      </c>
+      <c r="N194" s="20">
         <f>(H194*I194)*10%</f>
         <v>0.91875000000000007</v>
       </c>
@@ -9861,7 +9857,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="195" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C195" s="6">
         <v>193</v>
       </c>
@@ -9871,7 +9867,7 @@
       <c r="E195" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="F195" s="15">
+      <c r="F195" s="14">
         <v>68</v>
       </c>
       <c r="G195" s="7">
@@ -9884,15 +9880,15 @@
       <c r="I195" s="6">
         <v>5</v>
       </c>
-      <c r="J195" s="26"/>
+      <c r="J195" s="31"/>
       <c r="L195" s="13">
         <v>68</v>
       </c>
-      <c r="M195" s="14">
-        <f t="shared" ref="M195:M228" si="20">(G195*I195)+N195</f>
-        <v>38.674999999999997</v>
-      </c>
-      <c r="N195" s="30">
+      <c r="M195" s="19">
+        <f t="shared" si="14"/>
+        <v>8.3416666666666668</v>
+      </c>
+      <c r="N195" s="20">
         <f t="shared" si="19"/>
         <v>0.7583333333333333</v>
       </c>
@@ -9901,7 +9897,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="196" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C196" s="6">
         <v>194</v>
       </c>
@@ -9911,7 +9907,7 @@
       <c r="E196" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="F196" s="15">
+      <c r="F196" s="14">
         <v>77</v>
       </c>
       <c r="G196" s="7">
@@ -9924,15 +9920,15 @@
       <c r="I196" s="6">
         <v>5</v>
       </c>
-      <c r="J196" s="26"/>
+      <c r="J196" s="31"/>
       <c r="L196" s="13">
         <v>77</v>
       </c>
-      <c r="M196" s="14">
-        <f t="shared" si="20"/>
-        <v>45.687500000000007</v>
-      </c>
-      <c r="N196" s="30">
+      <c r="M196" s="19">
+        <f t="shared" ref="M196:M228" si="20">(H196*I196)+N196</f>
+        <v>9.8541666666666679</v>
+      </c>
+      <c r="N196" s="20">
         <f t="shared" si="19"/>
         <v>0.89583333333333348</v>
       </c>
@@ -9941,7 +9937,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="197" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C197" s="6">
         <v>195</v>
       </c>
@@ -9951,7 +9947,7 @@
       <c r="E197" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="F197" s="15">
+      <c r="F197" s="14">
         <v>5</v>
       </c>
       <c r="G197" s="7">
@@ -9964,15 +9960,15 @@
       <c r="I197" s="6">
         <v>5</v>
       </c>
-      <c r="J197" s="26"/>
+      <c r="J197" s="31"/>
       <c r="L197" s="13">
         <v>5</v>
       </c>
-      <c r="M197" s="14">
+      <c r="M197" s="19">
         <f t="shared" si="20"/>
-        <v>47.706249999999997</v>
-      </c>
-      <c r="N197" s="30">
+        <v>10.289583333333333</v>
+      </c>
+      <c r="N197" s="20">
         <f t="shared" si="19"/>
         <v>0.93541666666666667</v>
       </c>
@@ -9981,7 +9977,7 @@
         <v>Warning ! Material harus segera dibeli</v>
       </c>
     </row>
-    <row r="198" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C198" s="6">
         <v>196</v>
       </c>
@@ -9991,7 +9987,7 @@
       <c r="E198" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="F198" s="15">
+      <c r="F198" s="14">
         <v>21</v>
       </c>
       <c r="G198" s="7">
@@ -10004,24 +10000,24 @@
       <c r="I198" s="6">
         <v>5</v>
       </c>
-      <c r="J198" s="26"/>
+      <c r="J198" s="31"/>
       <c r="L198" s="13">
         <v>21</v>
       </c>
-      <c r="M198" s="14">
+      <c r="M198" s="19">
         <f t="shared" si="20"/>
-        <v>51.637500000000003</v>
-      </c>
-      <c r="N198" s="30">
+        <v>11.137499999999999</v>
+      </c>
+      <c r="N198" s="20">
         <f t="shared" si="19"/>
         <v>1.0125</v>
       </c>
       <c r="O198" s="13" t="str">
         <f t="shared" si="21"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="199" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="199" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C199" s="6">
         <v>197</v>
       </c>
@@ -10031,7 +10027,7 @@
       <c r="E199" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="F199" s="15">
+      <c r="F199" s="14">
         <v>78</v>
       </c>
       <c r="G199" s="7">
@@ -10044,15 +10040,15 @@
       <c r="I199" s="6">
         <v>3</v>
       </c>
-      <c r="J199" s="26"/>
+      <c r="J199" s="31"/>
       <c r="L199" s="13">
         <v>78</v>
       </c>
-      <c r="M199" s="14">
+      <c r="M199" s="19">
         <f t="shared" si="20"/>
-        <v>26.966249999999999</v>
-      </c>
-      <c r="N199" s="30">
+        <v>5.8162499999999993</v>
+      </c>
+      <c r="N199" s="20">
         <f t="shared" si="19"/>
         <v>0.52874999999999994</v>
       </c>
@@ -10061,7 +10057,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="200" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C200" s="6">
         <v>198</v>
       </c>
@@ -10071,7 +10067,7 @@
       <c r="E200" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="F200" s="15">
+      <c r="F200" s="14">
         <v>15</v>
       </c>
       <c r="G200" s="7">
@@ -10084,24 +10080,24 @@
       <c r="I200" s="6">
         <v>3</v>
       </c>
-      <c r="J200" s="26"/>
+      <c r="J200" s="31"/>
       <c r="L200" s="13">
         <v>15</v>
       </c>
-      <c r="M200" s="14">
+      <c r="M200" s="19">
         <f t="shared" si="20"/>
-        <v>29.452500000000001</v>
-      </c>
-      <c r="N200" s="30">
+        <v>6.3525</v>
+      </c>
+      <c r="N200" s="20">
         <f t="shared" si="19"/>
         <v>0.57750000000000001</v>
       </c>
       <c r="O200" s="13" t="str">
         <f t="shared" si="21"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="201" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="201" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C201" s="6">
         <v>199</v>
       </c>
@@ -10111,7 +10107,7 @@
       <c r="E201" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="F201" s="15">
+      <c r="F201" s="14">
         <v>10</v>
       </c>
       <c r="G201" s="7">
@@ -10124,24 +10120,24 @@
       <c r="I201" s="6">
         <v>3</v>
       </c>
-      <c r="J201" s="26"/>
+      <c r="J201" s="31"/>
       <c r="L201" s="13">
         <v>10</v>
       </c>
-      <c r="M201" s="14">
+      <c r="M201" s="19">
         <f t="shared" si="20"/>
-        <v>24.99</v>
-      </c>
-      <c r="N201" s="30">
+        <v>5.3900000000000006</v>
+      </c>
+      <c r="N201" s="20">
         <f t="shared" si="19"/>
         <v>0.49000000000000005</v>
       </c>
       <c r="O201" s="13" t="str">
         <f t="shared" si="21"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="202" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="202" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C202" s="6">
         <v>200</v>
       </c>
@@ -10151,7 +10147,7 @@
       <c r="E202" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="F202" s="15">
+      <c r="F202" s="14">
         <v>19</v>
       </c>
       <c r="G202" s="7">
@@ -10164,24 +10160,24 @@
       <c r="I202" s="6">
         <v>3</v>
       </c>
-      <c r="J202" s="26"/>
+      <c r="J202" s="31"/>
       <c r="L202" s="13">
         <v>19</v>
       </c>
-      <c r="M202" s="14">
+      <c r="M202" s="19">
         <f t="shared" si="20"/>
-        <v>23.715</v>
-      </c>
-      <c r="N202" s="30">
+        <v>5.1150000000000002</v>
+      </c>
+      <c r="N202" s="20">
         <f t="shared" si="19"/>
         <v>0.46500000000000008</v>
       </c>
       <c r="O202" s="13" t="str">
         <f t="shared" si="21"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="203" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="203" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C203" s="6">
         <v>201</v>
       </c>
@@ -10191,7 +10187,7 @@
       <c r="E203" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="F203" s="15">
+      <c r="F203" s="14">
         <v>35</v>
       </c>
       <c r="G203" s="7">
@@ -10204,15 +10200,15 @@
       <c r="I203" s="6">
         <v>3</v>
       </c>
-      <c r="J203" s="26"/>
+      <c r="J203" s="31"/>
       <c r="L203" s="13">
         <v>35</v>
       </c>
-      <c r="M203" s="14">
+      <c r="M203" s="19">
         <f t="shared" si="20"/>
-        <v>26.01</v>
-      </c>
-      <c r="N203" s="30">
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="N203" s="20">
         <f t="shared" si="19"/>
         <v>0.51</v>
       </c>
@@ -10221,7 +10217,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="204" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C204" s="6">
         <v>202</v>
       </c>
@@ -10231,7 +10227,7 @@
       <c r="E204" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="F204" s="15">
+      <c r="F204" s="14">
         <v>57</v>
       </c>
       <c r="G204" s="7">
@@ -10244,17 +10240,17 @@
       <c r="I204" s="6">
         <v>5</v>
       </c>
-      <c r="J204" s="19" t="s">
+      <c r="J204" s="24" t="s">
         <v>402</v>
       </c>
       <c r="L204" s="13">
         <v>57</v>
       </c>
-      <c r="M204" s="14">
+      <c r="M204" s="19">
         <f t="shared" si="20"/>
-        <v>48.343749999999993</v>
-      </c>
-      <c r="N204" s="30">
+        <v>10.427083333333332</v>
+      </c>
+      <c r="N204" s="20">
         <f t="shared" si="19"/>
         <v>0.94791666666666663</v>
       </c>
@@ -10263,7 +10259,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="205" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C205" s="6">
         <v>203</v>
       </c>
@@ -10273,7 +10269,7 @@
       <c r="E205" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="F205" s="15">
+      <c r="F205" s="14">
         <v>3</v>
       </c>
       <c r="G205" s="7">
@@ -10286,15 +10282,15 @@
       <c r="I205" s="6">
         <v>5</v>
       </c>
-      <c r="J205" s="20"/>
+      <c r="J205" s="25"/>
       <c r="L205" s="13">
         <v>3</v>
       </c>
-      <c r="M205" s="14">
+      <c r="M205" s="19">
         <f t="shared" si="20"/>
-        <v>52.168749999999996</v>
-      </c>
-      <c r="N205" s="30">
+        <v>11.252083333333335</v>
+      </c>
+      <c r="N205" s="20">
         <f>(H205*I205)*10%</f>
         <v>1.0229166666666669</v>
       </c>
@@ -10303,7 +10299,7 @@
         <v>Warning ! Material harus segera dibeli</v>
       </c>
     </row>
-    <row r="206" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C206" s="6">
         <v>204</v>
       </c>
@@ -10313,7 +10309,7 @@
       <c r="E206" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="F206" s="15">
+      <c r="F206" s="14">
         <v>74</v>
       </c>
       <c r="G206" s="7">
@@ -10326,15 +10322,15 @@
       <c r="I206" s="6">
         <v>5</v>
       </c>
-      <c r="J206" s="20"/>
+      <c r="J206" s="25"/>
       <c r="L206" s="13">
         <v>74</v>
       </c>
-      <c r="M206" s="14">
+      <c r="M206" s="19">
         <f t="shared" si="20"/>
-        <v>52.487499999999997</v>
-      </c>
-      <c r="N206" s="30">
+        <v>11.320833333333333</v>
+      </c>
+      <c r="N206" s="20">
         <f t="shared" si="19"/>
         <v>1.0291666666666666</v>
       </c>
@@ -10343,7 +10339,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="207" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C207" s="6">
         <v>205</v>
       </c>
@@ -10353,7 +10349,7 @@
       <c r="E207" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="F207" s="15">
+      <c r="F207" s="14">
         <v>63</v>
       </c>
       <c r="G207" s="7">
@@ -10366,15 +10362,15 @@
       <c r="I207" s="6">
         <v>5</v>
       </c>
-      <c r="J207" s="20"/>
+      <c r="J207" s="25"/>
       <c r="L207" s="13">
         <v>63</v>
       </c>
-      <c r="M207" s="14">
+      <c r="M207" s="19">
         <f t="shared" si="20"/>
-        <v>50.681249999999999</v>
-      </c>
-      <c r="N207" s="30">
+        <v>10.93125</v>
+      </c>
+      <c r="N207" s="20">
         <f t="shared" si="19"/>
         <v>0.99375000000000002</v>
       </c>
@@ -10383,7 +10379,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="208" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C208" s="6">
         <v>206</v>
       </c>
@@ -10393,7 +10389,7 @@
       <c r="E208" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="F208" s="15">
+      <c r="F208" s="14">
         <v>46</v>
       </c>
       <c r="G208" s="7">
@@ -10406,15 +10402,15 @@
       <c r="I208" s="6">
         <v>5</v>
       </c>
-      <c r="J208" s="21"/>
+      <c r="J208" s="26"/>
       <c r="L208" s="13">
         <v>46</v>
       </c>
-      <c r="M208" s="14">
+      <c r="M208" s="19">
         <f t="shared" si="20"/>
-        <v>40.587499999999999</v>
-      </c>
-      <c r="N208" s="30">
+        <v>8.7541666666666664</v>
+      </c>
+      <c r="N208" s="20">
         <f t="shared" si="19"/>
         <v>0.79583333333333339</v>
       </c>
@@ -10423,7 +10419,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="209" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C209" s="6">
         <v>207</v>
       </c>
@@ -10433,7 +10429,7 @@
       <c r="E209" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="F209" s="15">
+      <c r="F209" s="14">
         <v>23</v>
       </c>
       <c r="G209" s="7">
@@ -10446,26 +10442,26 @@
       <c r="I209" s="6">
         <v>5</v>
       </c>
-      <c r="J209" s="19" t="s">
+      <c r="J209" s="24" t="s">
         <v>413</v>
       </c>
       <c r="L209" s="13">
         <v>23</v>
       </c>
-      <c r="M209" s="14">
+      <c r="M209" s="19">
         <f t="shared" si="20"/>
-        <v>47.6</v>
-      </c>
-      <c r="N209" s="30">
+        <v>10.266666666666667</v>
+      </c>
+      <c r="N209" s="20">
         <f t="shared" si="19"/>
         <v>0.93333333333333346</v>
       </c>
       <c r="O209" s="13" t="str">
         <f t="shared" si="21"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="210" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="210" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C210" s="6">
         <v>208</v>
       </c>
@@ -10475,7 +10471,7 @@
       <c r="E210" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F210" s="15">
+      <c r="F210" s="14">
         <v>62</v>
       </c>
       <c r="G210" s="7">
@@ -10488,15 +10484,15 @@
       <c r="I210" s="6">
         <v>3</v>
       </c>
-      <c r="J210" s="20"/>
+      <c r="J210" s="25"/>
       <c r="L210" s="13">
         <v>62</v>
       </c>
-      <c r="M210" s="14">
+      <c r="M210" s="19">
         <f t="shared" si="20"/>
-        <v>27.221250000000001</v>
-      </c>
-      <c r="N210" s="30">
+        <v>5.8712500000000007</v>
+      </c>
+      <c r="N210" s="20">
         <f t="shared" si="19"/>
         <v>0.53375000000000006</v>
       </c>
@@ -10505,7 +10501,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="211" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C211" s="6">
         <v>209</v>
       </c>
@@ -10515,7 +10511,7 @@
       <c r="E211" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="F211" s="15">
+      <c r="F211" s="14">
         <v>38</v>
       </c>
       <c r="G211" s="7">
@@ -10528,15 +10524,15 @@
       <c r="I211" s="6">
         <v>3</v>
       </c>
-      <c r="J211" s="20"/>
+      <c r="J211" s="25"/>
       <c r="L211" s="13">
         <v>38</v>
       </c>
-      <c r="M211" s="14">
+      <c r="M211" s="19">
         <f t="shared" si="20"/>
-        <v>30.727499999999999</v>
-      </c>
-      <c r="N211" s="30">
+        <v>6.6275000000000004</v>
+      </c>
+      <c r="N211" s="20">
         <f t="shared" si="19"/>
         <v>0.60250000000000004</v>
       </c>
@@ -10545,7 +10541,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="212" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C212" s="6">
         <v>210</v>
       </c>
@@ -10555,7 +10551,7 @@
       <c r="E212" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="F212" s="15">
+      <c r="F212" s="14">
         <v>73</v>
       </c>
       <c r="G212" s="7">
@@ -10568,15 +10564,15 @@
       <c r="I212" s="6">
         <v>3</v>
       </c>
-      <c r="J212" s="20"/>
+      <c r="J212" s="25"/>
       <c r="L212" s="13">
         <v>73</v>
       </c>
-      <c r="M212" s="14">
+      <c r="M212" s="19">
         <f t="shared" si="20"/>
-        <v>23.651250000000001</v>
-      </c>
-      <c r="N212" s="30">
+        <v>5.1012500000000003</v>
+      </c>
+      <c r="N212" s="20">
         <f t="shared" si="19"/>
         <v>0.46375000000000005</v>
       </c>
@@ -10585,7 +10581,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="213" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C213" s="6">
         <v>211</v>
       </c>
@@ -10595,7 +10591,7 @@
       <c r="E213" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="F213" s="15">
+      <c r="F213" s="14">
         <v>6</v>
       </c>
       <c r="G213" s="7">
@@ -10608,15 +10604,15 @@
       <c r="I213" s="6">
         <v>5</v>
       </c>
-      <c r="J213" s="21"/>
+      <c r="J213" s="26"/>
       <c r="L213" s="13">
         <v>6</v>
       </c>
-      <c r="M213" s="14">
+      <c r="M213" s="19">
         <f t="shared" si="20"/>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="N213" s="30">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N213" s="20">
         <f t="shared" si="19"/>
         <v>0.8</v>
       </c>
@@ -10625,7 +10621,7 @@
         <v>Warning ! Material harus segera dibeli</v>
       </c>
     </row>
-    <row r="214" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C214" s="6">
         <v>212</v>
       </c>
@@ -10635,7 +10631,7 @@
       <c r="E214" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="F214" s="15">
+      <c r="F214" s="14">
         <v>77</v>
       </c>
       <c r="G214" s="7">
@@ -10648,17 +10644,17 @@
       <c r="I214" s="6">
         <v>5</v>
       </c>
-      <c r="J214" s="22" t="s">
+      <c r="J214" s="27" t="s">
         <v>424</v>
       </c>
       <c r="L214" s="13">
         <v>77</v>
       </c>
-      <c r="M214" s="14">
+      <c r="M214" s="19">
         <f t="shared" si="20"/>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="N214" s="30">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N214" s="20">
         <f>(H214*I214)*10%</f>
         <v>0.8</v>
       </c>
@@ -10667,7 +10663,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="215" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C215" s="6">
         <v>213</v>
       </c>
@@ -10677,7 +10673,7 @@
       <c r="E215" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="F215" s="15">
+      <c r="F215" s="14">
         <v>13</v>
       </c>
       <c r="G215" s="7">
@@ -10690,24 +10686,24 @@
       <c r="I215" s="6">
         <v>5</v>
       </c>
-      <c r="J215" s="23"/>
+      <c r="J215" s="28"/>
       <c r="L215" s="13">
         <v>13</v>
       </c>
-      <c r="M215" s="14">
+      <c r="M215" s="19">
         <f t="shared" si="20"/>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="N215" s="30">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N215" s="20">
         <f t="shared" si="19"/>
         <v>0.8</v>
       </c>
       <c r="O215" s="13" t="str">
         <f t="shared" si="21"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="216" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="216" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C216" s="6">
         <v>214</v>
       </c>
@@ -10717,7 +10713,7 @@
       <c r="E216" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="F216" s="15">
+      <c r="F216" s="14">
         <v>33</v>
       </c>
       <c r="G216" s="7">
@@ -10730,24 +10726,24 @@
       <c r="I216" s="6">
         <v>5</v>
       </c>
-      <c r="J216" s="24"/>
+      <c r="J216" s="29"/>
       <c r="L216" s="13">
         <v>33</v>
       </c>
-      <c r="M216" s="14">
+      <c r="M216" s="19">
         <f t="shared" si="20"/>
-        <v>45.9</v>
-      </c>
-      <c r="N216" s="30">
+        <v>9.9</v>
+      </c>
+      <c r="N216" s="20">
         <f t="shared" si="19"/>
         <v>0.9</v>
       </c>
       <c r="O216" s="13" t="str">
         <f t="shared" si="21"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="217" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="217" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C217" s="6">
         <v>215</v>
       </c>
@@ -10757,7 +10753,7 @@
       <c r="E217" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="F217" s="15">
+      <c r="F217" s="14">
         <v>52</v>
       </c>
       <c r="G217" s="7">
@@ -10776,11 +10772,11 @@
       <c r="L217" s="13">
         <v>52</v>
       </c>
-      <c r="M217" s="14">
+      <c r="M217" s="19">
         <f t="shared" si="20"/>
-        <v>42.924999999999997</v>
-      </c>
-      <c r="N217" s="30">
+        <v>9.2583333333333329</v>
+      </c>
+      <c r="N217" s="20">
         <f t="shared" si="19"/>
         <v>0.84166666666666667</v>
       </c>
@@ -10789,7 +10785,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="218" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C218" s="6">
         <v>216</v>
       </c>
@@ -10799,7 +10795,7 @@
       <c r="E218" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="F218" s="15">
+      <c r="F218" s="14">
         <v>5</v>
       </c>
       <c r="G218" s="7">
@@ -10812,17 +10808,17 @@
       <c r="I218" s="6">
         <v>3</v>
       </c>
-      <c r="J218" s="22" t="s">
+      <c r="J218" s="27" t="s">
         <v>434</v>
       </c>
       <c r="L218" s="13">
         <v>5</v>
       </c>
-      <c r="M218" s="14">
+      <c r="M218" s="19">
         <f t="shared" si="20"/>
-        <v>25.563749999999999</v>
-      </c>
-      <c r="N218" s="30">
+        <v>5.513749999999999</v>
+      </c>
+      <c r="N218" s="20">
         <f t="shared" si="19"/>
         <v>0.50124999999999997</v>
       </c>
@@ -10831,7 +10827,7 @@
         <v>Warning ! Material harus segera dibeli</v>
       </c>
     </row>
-    <row r="219" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C219" s="6">
         <v>217</v>
       </c>
@@ -10841,7 +10837,7 @@
       <c r="E219" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="F219" s="15">
+      <c r="F219" s="14">
         <v>67</v>
       </c>
       <c r="G219" s="7">
@@ -10854,15 +10850,15 @@
       <c r="I219" s="6">
         <v>3</v>
       </c>
-      <c r="J219" s="23"/>
+      <c r="J219" s="28"/>
       <c r="L219" s="13">
         <v>67</v>
       </c>
-      <c r="M219" s="14">
+      <c r="M219" s="19">
         <f t="shared" si="20"/>
-        <v>24.416250000000002</v>
-      </c>
-      <c r="N219" s="30">
+        <v>5.2662500000000003</v>
+      </c>
+      <c r="N219" s="20">
         <f t="shared" si="19"/>
         <v>0.47875000000000006</v>
       </c>
@@ -10871,7 +10867,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="220" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C220" s="6">
         <v>218</v>
       </c>
@@ -10881,7 +10877,7 @@
       <c r="E220" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="F220" s="15">
+      <c r="F220" s="14">
         <v>29</v>
       </c>
       <c r="G220" s="7">
@@ -10894,24 +10890,24 @@
       <c r="I220" s="6">
         <v>3</v>
       </c>
-      <c r="J220" s="23"/>
+      <c r="J220" s="28"/>
       <c r="L220" s="13">
         <v>29</v>
       </c>
-      <c r="M220" s="14">
+      <c r="M220" s="19">
         <f t="shared" si="20"/>
-        <v>30.217500000000001</v>
-      </c>
-      <c r="N220" s="30">
+        <v>6.517500000000001</v>
+      </c>
+      <c r="N220" s="20">
         <f t="shared" si="19"/>
         <v>0.59250000000000014</v>
       </c>
       <c r="O220" s="13" t="str">
         <f t="shared" si="21"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="221" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="221" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C221" s="6">
         <v>219</v>
       </c>
@@ -10921,7 +10917,7 @@
       <c r="E221" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="F221" s="15">
+      <c r="F221" s="14">
         <v>29</v>
       </c>
       <c r="G221" s="7">
@@ -10934,15 +10930,15 @@
       <c r="I221" s="6">
         <v>3</v>
       </c>
-      <c r="J221" s="23"/>
+      <c r="J221" s="28"/>
       <c r="L221" s="13">
         <v>29</v>
       </c>
-      <c r="M221" s="14">
+      <c r="M221" s="19">
         <f t="shared" si="20"/>
-        <v>25.8825</v>
-      </c>
-      <c r="N221" s="30">
+        <v>5.5825000000000014</v>
+      </c>
+      <c r="N221" s="20">
         <f t="shared" si="19"/>
         <v>0.50750000000000017</v>
       </c>
@@ -10951,7 +10947,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="222" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C222" s="6">
         <v>220</v>
       </c>
@@ -10961,7 +10957,7 @@
       <c r="E222" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="F222" s="15">
+      <c r="F222" s="14">
         <v>6</v>
       </c>
       <c r="G222" s="7">
@@ -10974,24 +10970,24 @@
       <c r="I222" s="6">
         <v>3</v>
       </c>
-      <c r="J222" s="23"/>
+      <c r="J222" s="28"/>
       <c r="L222" s="13">
         <v>6</v>
       </c>
-      <c r="M222" s="14">
+      <c r="M222" s="19">
         <f t="shared" si="20"/>
-        <v>26.07375</v>
-      </c>
-      <c r="N222" s="30">
+        <v>5.6237500000000011</v>
+      </c>
+      <c r="N222" s="20">
         <f t="shared" si="19"/>
         <v>0.51125000000000009</v>
       </c>
       <c r="O222" s="13" t="str">
         <f t="shared" si="21"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="223" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="223" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C223" s="6">
         <v>221</v>
       </c>
@@ -11001,7 +10997,7 @@
       <c r="E223" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="F223" s="15">
+      <c r="F223" s="14">
         <v>19</v>
       </c>
       <c r="G223" s="7">
@@ -11014,24 +11010,24 @@
       <c r="I223" s="6">
         <v>3</v>
       </c>
-      <c r="J223" s="23"/>
+      <c r="J223" s="28"/>
       <c r="L223" s="13">
         <v>19</v>
       </c>
-      <c r="M223" s="14">
+      <c r="M223" s="19">
         <f t="shared" si="20"/>
-        <v>31.875</v>
-      </c>
-      <c r="N223" s="30">
+        <v>6.8749999999999991</v>
+      </c>
+      <c r="N223" s="20">
         <f t="shared" si="19"/>
         <v>0.625</v>
       </c>
       <c r="O223" s="13" t="str">
         <f t="shared" si="21"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="224" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="224" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C224" s="6">
         <v>222</v>
       </c>
@@ -11041,7 +11037,7 @@
       <c r="E224" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="F224" s="15">
+      <c r="F224" s="14">
         <v>20</v>
       </c>
       <c r="G224" s="7">
@@ -11054,24 +11050,24 @@
       <c r="I224" s="6">
         <v>3</v>
       </c>
-      <c r="J224" s="23"/>
+      <c r="J224" s="28"/>
       <c r="L224" s="13">
         <v>20</v>
       </c>
-      <c r="M224" s="14">
+      <c r="M224" s="19">
         <f t="shared" si="20"/>
-        <v>24.607500000000002</v>
-      </c>
-      <c r="N224" s="30">
+        <v>5.3074999999999992</v>
+      </c>
+      <c r="N224" s="20">
         <f>(H224*I224)*10%</f>
         <v>0.48249999999999993</v>
       </c>
       <c r="O224" s="13" t="str">
         <f t="shared" si="21"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="225" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="225" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C225" s="6">
         <v>223</v>
       </c>
@@ -11081,7 +11077,7 @@
       <c r="E225" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="F225" s="15">
+      <c r="F225" s="14">
         <v>61</v>
       </c>
       <c r="G225" s="7">
@@ -11094,15 +11090,15 @@
       <c r="I225" s="6">
         <v>3</v>
       </c>
-      <c r="J225" s="23"/>
+      <c r="J225" s="28"/>
       <c r="L225" s="13">
         <v>61</v>
       </c>
-      <c r="M225" s="14">
+      <c r="M225" s="19">
         <f t="shared" si="20"/>
-        <v>24.033750000000001</v>
-      </c>
-      <c r="N225" s="30">
+        <v>5.1837500000000007</v>
+      </c>
+      <c r="N225" s="20">
         <f t="shared" si="19"/>
         <v>0.47125000000000006</v>
       </c>
@@ -11111,7 +11107,7 @@
         <v>Stock Aman</v>
       </c>
     </row>
-    <row r="226" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C226" s="6">
         <v>224</v>
       </c>
@@ -11121,7 +11117,7 @@
       <c r="E226" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="F226" s="15">
+      <c r="F226" s="14">
         <v>27</v>
       </c>
       <c r="G226" s="7">
@@ -11134,24 +11130,24 @@
       <c r="I226" s="6">
         <v>3</v>
       </c>
-      <c r="J226" s="23"/>
+      <c r="J226" s="28"/>
       <c r="L226" s="13">
         <v>27</v>
       </c>
-      <c r="M226" s="14">
+      <c r="M226" s="19">
         <f t="shared" si="20"/>
-        <v>27.922499999999999</v>
-      </c>
-      <c r="N226" s="30">
+        <v>6.0225</v>
+      </c>
+      <c r="N226" s="20">
         <f t="shared" si="19"/>
         <v>0.54749999999999999</v>
       </c>
       <c r="O226" s="13" t="str">
         <f t="shared" si="21"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="227" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="227" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C227" s="6">
         <v>225</v>
       </c>
@@ -11161,7 +11157,7 @@
       <c r="E227" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="F227" s="15">
+      <c r="F227" s="14">
         <v>47</v>
       </c>
       <c r="G227" s="7">
@@ -11174,24 +11170,24 @@
       <c r="I227" s="6">
         <v>5</v>
       </c>
-      <c r="J227" s="23"/>
+      <c r="J227" s="28"/>
       <c r="L227" s="13">
         <v>47</v>
       </c>
-      <c r="M227" s="14">
+      <c r="M227" s="19">
         <f t="shared" si="20"/>
-        <v>50.681249999999999</v>
-      </c>
-      <c r="N227" s="30">
+        <v>10.93125</v>
+      </c>
+      <c r="N227" s="20">
         <f t="shared" si="19"/>
         <v>0.99375000000000002</v>
       </c>
       <c r="O227" s="13" t="str">
         <f t="shared" si="21"/>
-        <v>Warning ! Material harus segera dibeli</v>
-      </c>
-    </row>
-    <row r="228" spans="3:15" x14ac:dyDescent="0.2">
+        <v>Stock Aman</v>
+      </c>
+    </row>
+    <row r="228" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C228" s="6">
         <v>226</v>
       </c>
@@ -11201,7 +11197,7 @@
       <c r="E228" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="F228" s="15">
+      <c r="F228" s="14">
         <v>56</v>
       </c>
       <c r="G228" s="7">
@@ -11214,15 +11210,15 @@
       <c r="I228" s="6">
         <v>5</v>
       </c>
-      <c r="J228" s="24"/>
+      <c r="J228" s="29"/>
       <c r="L228" s="13">
         <v>56</v>
       </c>
-      <c r="M228" s="14">
+      <c r="M228" s="19">
         <f t="shared" si="20"/>
-        <v>41.543750000000003</v>
-      </c>
-      <c r="N228" s="30">
+        <v>8.9604166666666671</v>
+      </c>
+      <c r="N228" s="20">
         <f t="shared" ref="N228" si="23">(H228*I228)*10%</f>
         <v>0.81458333333333344</v>
       </c>
@@ -11251,12 +11247,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BE773C-E2A1-4DD8-9084-0E5232031BA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
